--- a/hair_model_results.xlsx
+++ b/hair_model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,46 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>004-PI588478_15-3</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9121843249222573</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>001-PI588568_13-107</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.06951870824406314</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>009-PI588470_15-17</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8274586183942085</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>012-PI588471_15-23</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.8016389274222306</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hair_model_results.xlsx
+++ b/hair_model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,126 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>004-PI588478_15-3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9857791880580289</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>001-PI588568_13-107</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8493184792593224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>009-PI588470_15-17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9720587635652564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>012-PI588471_15-23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7082437918797061</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>007-PI588601_15-11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6993877289623024</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>006-PI588606_15-9</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9926110729154066</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>011-PI588463_15-21</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8298248193246827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>010-PI588543_15-19</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9614144369530073</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>002-PI588331_13-109</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9649735094556326</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>003-PI597269_15-1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8681984001287604</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>008-PI588487_15-15</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8292395127984116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>005-PI588133_15-5</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9903248612495549</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hair_model_results.xlsx
+++ b/hair_model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,121 +448,721 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>004-PI588478_15-3</t>
+          <t>087-PI588540_16-45</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9857791880580289</v>
+        <v>0.9976890307949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>001-PI588568_13-107</t>
+          <t>070-PI483178_13-93</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8493184792593224</v>
+        <v>0.7887572838067849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>009-PI588470_15-17</t>
+          <t>092-PI483138_16-57</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9720587635652564</v>
+        <v>0.9340911288741912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>012-PI588471_15-23</t>
+          <t>050-PI483170_13-53</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7082437918797061</v>
+        <v>0.9822251177233018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>007-PI588601_15-11</t>
+          <t>004-PI588478_15-3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6993877289623024</v>
+        <v>0.9929580012040563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>006-PI588606_15-9</t>
+          <t>051-PI483181_13-55</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9926110729154066</v>
+        <v>0.9710960609071754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>011-PI588463_15-21</t>
+          <t>049-PI483145_13-51</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8298248193246827</v>
+        <v>0.8951157977131569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>010-PI588543_15-19</t>
+          <t>084-PI483188_16-35</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9614144369530073</v>
+        <v>0.997518201181102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>002-PI588331_13-109</t>
+          <t>075-PI483152_13-103</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9649735094556326</v>
+        <v>0.9890809652047567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>003-PI597269_15-1</t>
+          <t>080-PI588584_16-27</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8681984001287604</v>
+        <v>0.8905323552821084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>008-PI588487_15-15</t>
+          <t>091-PI483151_16-55</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8292395127984116</v>
+        <v>0.9020786594561987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>074-PI588565_13-101</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9859340706448366</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>072-PI483155_13-97</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6063469266258945</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>068-PI597106_13-89</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9694088218984237</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>001-PI588568_13-107</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9313410569174886</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>009-PI588470_15-17</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.986410729379667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>065-PI483173_13-83</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9802936384035241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>071-PI483130_13-95</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9812392182587113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>046-PI483163_13-43</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9487512661405353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>041-PI588273_13-33</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9976111586853726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>094-PI588329_16-61</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.817556265446545</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>012-PI588471_15-23</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8563116434100404</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>083-PI483184_16-33</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9940901110733279</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>059-PI483150_13-71</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9697941510422134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>066-PI588401_13-86</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9846095226277646</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>007-PI588601_15-11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8465378714306637</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>069-PI483154_13-91</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.753120289121938</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>006-PI588606_15-9</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9964329503842887</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>079-PI224212_16-9</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8421085842741018</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>011-PI588463_15-21</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9155106262985105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>048-PI483147_13-49</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8854883404982374</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>062-PI588194_13-77</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8582999297780717</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>047-PI483146_13-47</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9136987225055315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>097-PI483159_16-67</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.955175542425984</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>058-PI483153_13-70</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.882876983083114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>010-PI588543_15-19</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9820273499272089</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>042-GVIT928_13-36</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.915351673496965</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>053-PI483149_13-59</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.881870210096662</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>090-PI483162_16-53</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9430716570234131</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>055-PI483174_13-63</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9810001749836438</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>099-PI588529_16-73</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9329276751181456</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>040-PI588440_13-31</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9476609608772972</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>098-PI483166_16-69</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9358583665705469</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>045-PI483172_13-41</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9911927744573205</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>085-PI588328_16-37</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8432959851144509</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>054-PI483133_13-61</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9098801319383027</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>088-PI588510_16-47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9974544706607071</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>078-PI588599_16-7</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.993629475404246</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>100-PI588467_16-77</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9984423495416197</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>057-PI588483_13-67</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9859293051144222</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>096-PI483185_16-65</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9844141698642777</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>073-PI588457_13-100</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8114247679628195</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>002-PI588331_13-109</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9836650424177947</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>003-PI597269_15-1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9399341265069829</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>086-PI588143_16-41</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8865105766137225</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>064-PI483137_13-81</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.93984117277817</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>063-PI483189_13-79</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9953182309103048</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>082-PI588628_16-31</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9795322609462043</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>089-PI483143_16-49</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8933494951321566</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>081-PI588627_16-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9976728384773853</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>077-PI597270_16-4</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9192507518154814</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>095-GVIT1628_16-63</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9954226998598399</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>043-PI588455_13-37</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.990912333321514</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>067-PI483167_13-87</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9950594650834459</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>044-PI483165_13-39</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9928856105958295</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>056-PI483175_13-65</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6616157221610544</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>008-PI588487_15-15</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.916810914368458</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>052-PI588549_13-57</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7086863913359831</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>076-PI588605_16-1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9949983240976703</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>060-PI483182_13-74</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9965550737250559</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>093-PI588372_16-59</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7786015461211235</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>005-PI588133_15-5</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.9903248612495549</v>
+      <c r="B73" t="n">
+        <v>0.9953808709660555</v>
       </c>
     </row>
   </sheetData>

--- a/hair_model_results.xlsx
+++ b/hair_model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Landing Area %</t>
+          <t>Elapsed Time (sec)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Leaf Hair %</t>
+          <t>Landing Area % (d=n/a)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Leaf Hair % (d=n/a)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Num Holes (d=n/a)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mean (d=n/a)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Median (d=n/a)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maximum (d=n/a)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Minimum (d=n/a)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation (d=n/a)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Skewness (d=n/a)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mode (d=n/a)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (d=n/a)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (d=n/a)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Circle Count (d=4)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Landing Area % (d=4)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Filtered Landing Area / Unfiltered Landing Area (d=4)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Num Holes (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Mean (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Median (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Maximum (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Minimum (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Skewness (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Mode (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (d=4 uM)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Circle Count (d=15)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Landing Area % (d=15)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Filtered Landing Area / Unfiltered Landing Area (d=15)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Num Holes (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Mean (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Median (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Maximum (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Minimum (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Skewness (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Mode (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (d=15 uM)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (d=15 uM)</t>
         </is>
       </c>
     </row>
@@ -457,10 +642,121 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9976890307949</v>
+        <v>73.17219519615173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002310969205100025</v>
+        <v>0.9968050250274759</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.003194974972524109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4190742.111111111</v>
+      </c>
+      <c r="G2" t="n">
+        <v>132</v>
+      </c>
+      <c r="H2" t="n">
+        <v>37715594</v>
+      </c>
+      <c r="I2" t="n">
+        <v>76</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11852825.05452156</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.474873734098491</v>
+      </c>
+      <c r="L2" t="n">
+        <v>76</v>
+      </c>
+      <c r="M2" t="n">
+        <v>115</v>
+      </c>
+      <c r="N2" t="n">
+        <v>175</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3389382</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.7824012556620974</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.784909020337785</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3400852</v>
+      </c>
+      <c r="S2" t="n">
+        <v>21299654.34568508</v>
+      </c>
+      <c r="T2" t="n">
+        <v>21303309.42999568</v>
+      </c>
+      <c r="U2" t="n">
+        <v>42591966.47185502</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W2" t="n">
+        <v>12296836.06752748</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.0006292134322273699</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>42014705.1049432</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10646389.40571042</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>31948278.83582668</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>239574</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.7776984610579091</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.7801911522631746</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>241816</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>21181429.78245376</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>21192231.74584363</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>42336220.40950056</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>12227061.75390705</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.001762920022126474</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6305176.455754715</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>10582332.13515419</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>31768909.01422135</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +766,121 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7887572838067849</v>
+        <v>76.69945001602173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2112427161932151</v>
+        <v>0.7275492881229656</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2724507118770345</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1522</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20054.86005256242</v>
+      </c>
+      <c r="G3" t="n">
+        <v>124</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28169640</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>721816.0215909247</v>
+      </c>
+      <c r="K3" t="n">
+        <v>38.96921008235955</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>39</v>
+      </c>
+      <c r="N3" t="n">
+        <v>483.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2639923</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5953036747915079</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8182314030261185</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3363864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16792055.98442613</v>
+      </c>
+      <c r="T3" t="n">
+        <v>17146046.15468562</v>
+      </c>
+      <c r="U3" t="n">
+        <v>32744003.41427648</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9380208.552584749</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.09795934583098696</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8943030.435304653</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>25021770.7514156</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>159647</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.5062564868872115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.6958380623164701</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>238739</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>14647261.50599594</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>15151508.66918187</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27950946.18852924</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7969370.559177598</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1534163514910581</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8096178.792612171</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>21649569.09638996</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +890,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9340911288741912</v>
+        <v>80.02989172935486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06590887112580879</v>
+        <v>0.9138866016394833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08611339836051664</v>
+      </c>
+      <c r="E4" t="n">
+        <v>431</v>
+      </c>
+      <c r="F4" t="n">
+        <v>87739.29466357309</v>
+      </c>
+      <c r="G4" t="n">
+        <v>136</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37177242</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1788627.719220384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.68776194075559</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>676</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3351789</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7225029222232611</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.7905826838112233</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3554118</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20740773.15955554</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20919645.56876868</v>
+      </c>
+      <c r="U4" t="n">
+        <v>41583263.90264041</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12197237.15404515</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.02822719697857742</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10087556.62130456</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>31438432.90566825</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>223651</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.677947894730336</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.7418293402202408</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>252325</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>19689231.47871589</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>19980588.18169334</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>39192998.05472172</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11510419.15755053</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.0450413274075077</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>9563970.150277492</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>29841968.98149536</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +1014,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9822251177233018</v>
+        <v>70.9015097618103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01777488227669823</v>
+        <v>0.975486251272613</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02451374872738697</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F5" t="n">
+        <v>819917.1666666666</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34429278</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5248900.351650035</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.246950341952957</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>122.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3082992</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7673807581856539</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7866648629691438</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3154660</v>
+      </c>
+      <c r="S5" t="n">
+        <v>19516767.62180988</v>
+      </c>
+      <c r="T5" t="n">
+        <v>19589771.69939228</v>
+      </c>
+      <c r="U5" t="n">
+        <v>38742020.07310441</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11196454.51125849</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.014747738931553</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>28004244.87869371</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9821482.573101431</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>29243480.6584214</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>214423</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.7505375251196637</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.7693983632680801</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>224314</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>19216441.81492193</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19347508.17460978</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>37891671.83778848</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10970214.20141018</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.02780267209530056</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>27600521.16297538</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>9716695.731888646</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>28779163.27804741</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +1138,121 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9929580012040563</v>
+        <v>74.30585050582886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007041998795943731</v>
+        <v>0.9910405154944404</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.008959484505559586</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1784365.714285714</v>
+      </c>
+      <c r="G6" t="n">
+        <v>156</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37461460</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7977640.927321359</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.248528943483673</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>62</v>
+      </c>
+      <c r="N6" t="n">
+        <v>416</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3363483</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.7777932769213146</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.7848249034836537</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3395742</v>
+      </c>
+      <c r="S6" t="n">
+        <v>21150188.74281903</v>
+      </c>
+      <c r="T6" t="n">
+        <v>21203205.7216817</v>
+      </c>
+      <c r="U6" t="n">
+        <v>42266773.93309663</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12171136.17361227</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.003405385705738743</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>24027541.49955607</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10633439.76079233</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>31645460.71994716</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>236599</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.7693968219368672</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.7763525404942775</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>241441</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>20934219.5428449</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21023734.38736374</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41810494.51387639</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12015263.53262782</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.005958603870294173</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>20428206.22996763</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>10573187.15528913</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>31256569.24854459</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +1262,121 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9710960609071754</v>
+        <v>73.19136714935303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0289039390928246</v>
+        <v>0.962214725964342</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03778527403565803</v>
+      </c>
+      <c r="E7" t="n">
+        <v>77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>472212.6493506493</v>
+      </c>
+      <c r="G7" t="n">
+        <v>97</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36327476</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4112880.909439703</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.603089169262958</v>
+      </c>
+      <c r="L7" t="n">
+        <v>30</v>
+      </c>
+      <c r="M7" t="n">
+        <v>41</v>
+      </c>
+      <c r="N7" t="n">
+        <v>354</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3242001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7556028144958832</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.785274631645873</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3364570</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20488699.09485248</v>
+      </c>
+      <c r="T7" t="n">
+        <v>20523063.47855012</v>
+      </c>
+      <c r="U7" t="n">
+        <v>40726463.62141217</v>
+      </c>
+      <c r="V7" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11741114.46061472</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.01690235692480726</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>32796694.20626249</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10343206.86508309</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>30739676.72606415</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>221692</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.7265959608939201</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.7551287059816277</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>239197</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>19828381.02545723</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>19902303.6197567</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>39169318.30009528</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11285658.68212841</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.03217766653423814</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>31477815.91117365</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>10098885.20441341</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>29742478.66914699</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +1386,121 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8951157977131569</v>
+        <v>77.63612866401672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1048842022868431</v>
+        <v>0.8634602607771658</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1365397392228343</v>
+      </c>
+      <c r="E8" t="n">
+        <v>657</v>
+      </c>
+      <c r="F8" t="n">
+        <v>51513.34703196347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>110</v>
+      </c>
+      <c r="H8" t="n">
+        <v>33449184</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1303964.729093442</v>
+      </c>
+      <c r="K8" t="n">
+        <v>25.57317281653799</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>39</v>
+      </c>
+      <c r="N8" t="n">
+        <v>404</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2984136</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.6887410795417818</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.7976523191951806</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3356955</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18668058.78145892</v>
+      </c>
+      <c r="T8" t="n">
+        <v>18721956.99432056</v>
+      </c>
+      <c r="U8" t="n">
+        <v>37305998.07114852</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10722225.28328261</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.01662468092206599</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29266197.51489951</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9484198.044219377</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>27939383.5567677</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>195309</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.63390206554868</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.7341415631312672</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>238484</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>17358446.29941869</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17467264.97143629</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34391132.58857197</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9869410.831122765</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.0356804360173002</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>19013782.67750517</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>8946308.490889132</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>25897390.15438654</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +1510,121 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.997518201181102</v>
+        <v>76.88944435119629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00248179881889795</v>
+        <v>0.9968601672579587</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.003139832742041374</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8041884.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>38</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40208746</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16083430.90155792</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.499999999273517</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>602</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3613831</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7823626362637447</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.7848268613398131</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3626875</v>
+      </c>
+      <c r="S9" t="n">
+        <v>22708251.91635172</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22697454.00187922</v>
+      </c>
+      <c r="U9" t="n">
+        <v>45412739.68366022</v>
+      </c>
+      <c r="V9" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W9" t="n">
+        <v>13113894.96557258</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-6.803140463676261e-05</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>35619540.86921906</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11352427.79708554</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34075454.36316499</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>255767</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.778658999403707</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.7811115590520055</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>257943</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>22604992.78819372</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>22582533.75721275</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>45197759.71297691</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13058831.44979297</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-7.244276053192668e-05</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>35544018.55262309</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>11293740.88282107</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>33940775.46420284</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +1634,121 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9890809652047567</v>
+        <v>74.02900099754333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0109190347952432</v>
+        <v>0.9859449535824634</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01405504641753664</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1465116.538461538</v>
+      </c>
+      <c r="G10" t="n">
+        <v>46</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38090331</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7325042.895411689</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.799999993389581</v>
+      </c>
+      <c r="L10" t="n">
+        <v>19</v>
+      </c>
+      <c r="M10" t="n">
+        <v>19</v>
+      </c>
+      <c r="N10" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3418844</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7746631377119713</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.7857062758901573</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3464264</v>
+      </c>
+      <c r="S10" t="n">
+        <v>21461910.19126898</v>
+      </c>
+      <c r="T10" t="n">
+        <v>21416959.68583195</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42962222.0156365</v>
+      </c>
+      <c r="V10" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W10" t="n">
+        <v>12361030.49015724</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.004505694349058443</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19556728.42786182</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10817480.54162492</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>32142881.65116065</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>240577</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.7665672241534695</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.7774949517902823</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>246338</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>21236748.79144893</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21174913.71634071</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>42513465.14002528</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12214431.9364915</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.006162977192250662</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>19350600.67987816</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>10749415.77693995</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>31779423.53213383</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +1758,121 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8905323552821084</v>
+        <v>81.02839636802673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1094676447178916</v>
+        <v>0.8616060073027797</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1383939926972203</v>
+      </c>
+      <c r="E11" t="n">
+        <v>712</v>
+      </c>
+      <c r="F11" t="n">
+        <v>51211.55758426966</v>
+      </c>
+      <c r="G11" t="n">
+        <v>108</v>
+      </c>
+      <c r="H11" t="n">
+        <v>36063917</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1350585.968427762</v>
+      </c>
+      <c r="K11" t="n">
+        <v>26.62684359066676</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="N11" t="n">
+        <v>327</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3223354</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6869925859904088</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.7973395962512023</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3592398</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20018182.37347405</v>
+      </c>
+      <c r="T11" t="n">
+        <v>20013610.24747339</v>
+      </c>
+      <c r="U11" t="n">
+        <v>40290687.02124742</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11632230.97810532</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.003144289196454595</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>34739065.54575337</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9917442.520705331</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>30160781.73097247</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>213477</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6398197956786968</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.7425897570997967</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>255164</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>18734261.86107537</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>18751626.58804014</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>37588076.1777272</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10875146.75790239</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.001198368212632176</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32559662.61134547</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>9249020.578016594</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>28260947.75236073</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +1882,121 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9020786594561987</v>
+        <v>79.57694292068481</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09792134054380133</v>
+        <v>0.8687194193135875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1312805806864125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>615</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57538.6650406504</v>
+      </c>
+      <c r="G12" t="n">
+        <v>111</v>
+      </c>
+      <c r="H12" t="n">
+        <v>34901110</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1406180.911034277</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24.73820083703501</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>38</v>
+      </c>
+      <c r="N12" t="n">
+        <v>369</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3123060</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.6947586246060777</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.7997503096627405</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3433674</v>
+      </c>
+      <c r="S12" t="n">
+        <v>19440263.21580166</v>
+      </c>
+      <c r="T12" t="n">
+        <v>19521021.08576112</v>
+      </c>
+      <c r="U12" t="n">
+        <v>38882876.52132077</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11303017.17498197</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.02324893966008296</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9690547.274485115</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29257661.8076597</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>205293</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.6422295665605706</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.7392830783822282</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>243737</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18098992.54500047</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>18226519.19346965</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>36054723.70837228</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10484339.61143227</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.03263301405931524</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>9048140.271512132</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>27218287.51180393</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +2006,121 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9859340706448366</v>
+        <v>71.97225403785706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01406592935516341</v>
+        <v>0.9805602904252919</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01943970957470809</v>
+      </c>
+      <c r="E13" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>875094.6585365854</v>
+      </c>
+      <c r="G13" t="n">
+        <v>63</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35870088</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5533194.29828404</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.166441383864463</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>216</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3214777</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.7709158581610908</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.786199345097614</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3272084</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20148085.54767666</v>
+      </c>
+      <c r="T13" t="n">
+        <v>20125991.2998776</v>
+      </c>
+      <c r="U13" t="n">
+        <v>40397702.23339931</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11649291.07021216</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.006126699501990149</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>27462005.98668412</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10051799.0137214</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>30219834.248082</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>224673</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.7576516035393166</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.7726721252506619</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>232713</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>19780615.05057983</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>19752272.9355937</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>39702996.35212385</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11449258.38531237</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.009689292373298852</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>39146875.5475762</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>9844592.914059401</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>29671085.97609416</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +2130,7437 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6063469266258945</v>
+        <v>81.47657036781311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3936530733741055</v>
+        <v>0.5014527975213358</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4985472024786642</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3454</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7134.206716850029</v>
+      </c>
+      <c r="G14" t="n">
+        <v>193</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6603887</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>145305.8670518594</v>
+      </c>
+      <c r="K14" t="n">
+        <v>38.58770729914362</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>52</v>
+      </c>
+      <c r="N14" t="n">
+        <v>862</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2078792</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4463663067423004</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8901462090722676</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2328564</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1661630.495508665</v>
+      </c>
+      <c r="T14" t="n">
+        <v>589111.454401158</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7181240.983134764</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2002668.002197962</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.070791757105109</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>40476.27974885089</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2958550.899221038</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>112938</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.3410224705906102</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.6800689362513735</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>159353</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1445433.753691391</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>629810.7872284137</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6017308.393915465</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1697005.088262408</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.041146655209905</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>45062.21962492859</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2531436.4554004</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>068-PI597106_13-89</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>72.17292881011963</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9604286222856271</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03957137771437286</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>531564.9104477612</v>
+      </c>
+      <c r="G15" t="n">
+        <v>52</v>
+      </c>
+      <c r="H15" t="n">
+        <v>35584047</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4314662.618153535</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8.000944991730885</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15" t="n">
+        <v>114</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3179273</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.7551790054396359</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.786293731690817</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3303501</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20048258.01802591</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20118935.28277764</v>
+      </c>
+      <c r="U15" t="n">
+        <v>39951834.83763123</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11514134.1474691</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.01020892721278568</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>39719985.29979631</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10068427.46363686</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>30023987.36205721</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>218796</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.7308428447456458</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.7609548776320167</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>234915</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>19454488.48824798</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>19581389.9301925</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>38664444.72570932</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11135731.54111772</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.01821823746415022</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>38440193.91510526</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>9796791.618339622</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>29110635.66417078</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>001-PI588568_13-107</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>81.23818778991699</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9125087243030369</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.08749127569696311</v>
+      </c>
+      <c r="E16" t="n">
+        <v>393</v>
+      </c>
+      <c r="F16" t="n">
+        <v>97037.73791348601</v>
+      </c>
+      <c r="G16" t="n">
+        <v>112</v>
+      </c>
+      <c r="H16" t="n">
+        <v>38002120</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1914495.969984844</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19.74847586874916</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22</v>
+      </c>
+      <c r="M16" t="n">
+        <v>33</v>
+      </c>
+      <c r="N16" t="n">
+        <v>316</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3384482</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.7212955975502268</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.7904533713923049</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3672722</v>
+      </c>
+      <c r="S16" t="n">
+        <v>21200212.18521083</v>
+      </c>
+      <c r="T16" t="n">
+        <v>21187120.76729532</v>
+      </c>
+      <c r="U16" t="n">
+        <v>42510435.85930905</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12246151.35993449</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.004647222061557289</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11364698.85799046</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10552248.44025295</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>31863791.98459369</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>227077</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.6805448568478387</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.7457954523860916</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>261110</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>19984509.10147366</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19970427.09295439</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>40116685.19973937</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11567591.13719564</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.007519707899277786</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29118676.17786856</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>9904366.623032467</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>30103639.10584678</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>009-PI588470_15-17</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.42449116706848</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9814022066379989</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01859779336200106</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1136609.129032258</v>
+      </c>
+      <c r="G17" t="n">
+        <v>49</v>
+      </c>
+      <c r="H17" t="n">
+        <v>35222323</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6223171.707074076</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.294650711390918</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18</v>
+      </c>
+      <c r="M17" t="n">
+        <v>23</v>
+      </c>
+      <c r="N17" t="n">
+        <v>114</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3154842</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.7707432502089629</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.78534900879152</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3213974</v>
+      </c>
+      <c r="S17" t="n">
+        <v>19763456.19295345</v>
+      </c>
+      <c r="T17" t="n">
+        <v>19730565.31575556</v>
+      </c>
+      <c r="U17" t="n">
+        <v>39644913.80174612</v>
+      </c>
+      <c r="V17" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11460642.38033316</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.006394930421905962</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>33619050.06563677</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9792510.805650026</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29709359.99939284</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>219301</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.7534167368894197</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.7676941541332053</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>228525</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>19269588.76520951</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19203750.85827692</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>38753685.59202535</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11228005.77028453</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.01289678630745908</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>32901605.33673463</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>9453523.533549726</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>29038801.18465104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>065-PI483173_13-83</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>74.3595495223999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9737558159834103</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0262441840165897</v>
+      </c>
+      <c r="E18" t="n">
+        <v>79</v>
+      </c>
+      <c r="F18" t="n">
+        <v>481286.5569620253</v>
+      </c>
+      <c r="G18" t="n">
+        <v>66</v>
+      </c>
+      <c r="H18" t="n">
+        <v>38007720</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4249031.883089712</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8.718533118711548</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3398434</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.7646297391319361</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.7852376607986934</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3486896</v>
+      </c>
+      <c r="S18" t="n">
+        <v>21405191.7919501</v>
+      </c>
+      <c r="T18" t="n">
+        <v>21448840.56808057</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42704573.71893029</v>
+      </c>
+      <c r="V18" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W18" t="n">
+        <v>12302955.94486927</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.005805502760456219</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>38101574.9947436</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10769401.60765439</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>32027208.20965547</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>234452</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.74180340507139</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.7617961226986171</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>247973</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>20836848.47519475</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>20927071.5084036</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>41430734.86691964</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11920621.69667693</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.01374122354319683</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>37002444.03718989</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>10548800.54231564</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>31107598.85190218</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>071-PI483130_13-95</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>74.77107167243958</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9760167819347161</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.02398321806528387</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1131410.727272727</v>
+      </c>
+      <c r="G19" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" t="n">
+        <v>37332140</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6399445.290230966</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.480077548534804</v>
+      </c>
+      <c r="L19" t="n">
+        <v>58</v>
+      </c>
+      <c r="M19" t="n">
+        <v>38</v>
+      </c>
+      <c r="N19" t="n">
+        <v>179</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3341676</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.7663938805290298</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.7852261300362481</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3421673</v>
+      </c>
+      <c r="S19" t="n">
+        <v>21002506.59425372</v>
+      </c>
+      <c r="T19" t="n">
+        <v>21027609.54190195</v>
+      </c>
+      <c r="U19" t="n">
+        <v>41992739.0891093</v>
+      </c>
+      <c r="V19" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W19" t="n">
+        <v>12120475.9819733</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.0006960063315613562</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5835998.442497001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10516104.4167734</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>31502873.25417868</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>232448</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.7496801954089184</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.7681017471060892</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>243296</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20560119.06837653</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>20611547.61373572</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>41076952.26421726</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11869070.6796577</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.0003097435162349926</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>5697101.562698325</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>10286688.6314973</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>30854057.59854192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>046-PI483163_13-43</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>77.20043587684631</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9281892293841153</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.07181077061588464</v>
+      </c>
+      <c r="E20" t="n">
+        <v>252</v>
+      </c>
+      <c r="F20" t="n">
+        <v>140847.4246031746</v>
+      </c>
+      <c r="G20" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>35401411</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2225627.181020123</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.77985700884109</v>
+      </c>
+      <c r="L20" t="n">
+        <v>15</v>
+      </c>
+      <c r="M20" t="n">
+        <v>44</v>
+      </c>
+      <c r="N20" t="n">
+        <v>351</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3161561</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.7374802370965191</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.7945365166388129</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3334174</v>
+      </c>
+      <c r="S20" t="n">
+        <v>19970256.51763164</v>
+      </c>
+      <c r="T20" t="n">
+        <v>19935598.21869944</v>
+      </c>
+      <c r="U20" t="n">
+        <v>39703070.96494938</v>
+      </c>
+      <c r="V20" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11417546.97012834</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.01003196852485698</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11839230.14512989</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10224178.20262388</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>29909089.89393747</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>215501</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.7069043371547871</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.7615950657215035</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>237071</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>19279679.35517587</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>19285746.42653562</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>38072097.43087497</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10944540.59731459</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-0.02237561154522127</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>11467009.53514359</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>9977570.640599631</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>28817289.45014184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>041-PI588273_13-33</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>73.03333187103271</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9967725720794085</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.003227427920591543</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9442125.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>82</v>
+      </c>
+      <c r="H21" t="n">
+        <v>37768327</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16354140.20554527</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.154700538352512</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9442180</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3394360</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.7824143781890714</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.7849477404427817</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3406247</v>
+      </c>
+      <c r="S21" t="n">
+        <v>21330919.54900439</v>
+      </c>
+      <c r="T21" t="n">
+        <v>21339695.35610956</v>
+      </c>
+      <c r="U21" t="n">
+        <v>42654785.7585562</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W21" t="n">
+        <v>12310067.17719161</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-0.0005313301754710486</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>39302065.51227456</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10670978.65141007</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>31989612.77036996</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>240033</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.7780587844425736</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.7805780438153841</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>242237</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21222718.69390314</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21238265.89569576</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>42417332.40482543</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12241395.61789278</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-0.00143481456774231</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>39109942.19894244</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>10624434.38545081</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>31825590.21792604</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>094-PI588329_16-61</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>78.32273411750793</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7655726758938648</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2344273241061352</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F22" t="n">
+        <v>27243.12043189369</v>
+      </c>
+      <c r="G22" t="n">
+        <v>148</v>
+      </c>
+      <c r="H22" t="n">
+        <v>30865889</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>889478.3990492447</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34.61477792736934</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>42</v>
+      </c>
+      <c r="N22" t="n">
+        <v>529.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2856125</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6212301731274606</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8114581315250402</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3348162</v>
+      </c>
+      <c r="S22" t="n">
+        <v>16153690.20731218</v>
+      </c>
+      <c r="T22" t="n">
+        <v>15871734.4929806</v>
+      </c>
+      <c r="U22" t="n">
+        <v>34223203.46566331</v>
+      </c>
+      <c r="V22" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W22" t="n">
+        <v>10092743.36877012</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.05697153552887808</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7462718.260118449</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>24725374.05092001</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>177212</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.5420395711860322</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.708018439337793</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>237021</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14144010.43553717</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13735494.68543853</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>30123652.03279785</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8876140.144559048</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.08718612496506067</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>6483834.902973549</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>21670863.20409507</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>012-PI588471_15-23</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>74.27154731750488</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8158889924545687</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1841110075454313</v>
+      </c>
+      <c r="E23" t="n">
+        <v>883</v>
+      </c>
+      <c r="F23" t="n">
+        <v>36537.38165345413</v>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30209782</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1016096.173612248</v>
+      </c>
+      <c r="K23" t="n">
+        <v>29.65519705209325</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>43</v>
+      </c>
+      <c r="N23" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2806659</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6500782227536338</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.7967728805825656</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3334531</v>
+      </c>
+      <c r="S23" t="n">
+        <v>17255901.41177381</v>
+      </c>
+      <c r="T23" t="n">
+        <v>17013458.37833351</v>
+      </c>
+      <c r="U23" t="n">
+        <v>35162627.63368096</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9986123.384014746</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.05087340522416441</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8787091.200758416</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>25735355.24834463</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>173234</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.5642500887869075</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.6915770331566604</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>236907</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14823725.87782229</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14453839.48063592</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>30561550.7788001</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8639779.078778369</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.08864122610454331</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>7540146.345357905</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>22115918.89086128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>083-PI483184_16-33</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>74.21257567405701</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.992109701865921</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.007890298134079082</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3847738.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>38476386</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11542882.5011918</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.666666665634176</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>203.75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3453327</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.7785834906772447</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.7847756041624384</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3482650</v>
+      </c>
+      <c r="S24" t="n">
+        <v>21713743.13512909</v>
+      </c>
+      <c r="T24" t="n">
+        <v>21745607.97650928</v>
+      </c>
+      <c r="U24" t="n">
+        <v>43395786.93457312</v>
+      </c>
+      <c r="V24" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W24" t="n">
+        <v>12518137.47914534</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.003332923839131589</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>39796439.09861407</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10870667.7052502</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>32537471.97163683</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>242810</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.7698331186952448</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.7759556400339327</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>247563</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>21493487.19483982</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>21560239.87278054</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>42908068.81227025</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12373332.65893242</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>-0.00733078417497658</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>39394982.82739346</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>10769605.41847779</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>32175043.31325269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>059-PI483150_13-71</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>73.84378862380981</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9603133478610233</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0396866521389767</v>
+      </c>
+      <c r="E25" t="n">
+        <v>133</v>
+      </c>
+      <c r="F25" t="n">
+        <v>264820.4887218045</v>
+      </c>
+      <c r="G25" t="n">
+        <v>57</v>
+      </c>
+      <c r="H25" t="n">
+        <v>35181275</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3039087.418930045</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.40208485256793</v>
+      </c>
+      <c r="L25" t="n">
+        <v>30</v>
+      </c>
+      <c r="M25" t="n">
+        <v>22</v>
+      </c>
+      <c r="N25" t="n">
+        <v>159</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3144372</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.7555385105006787</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.7867624793340062</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3253560</v>
+      </c>
+      <c r="S25" t="n">
+        <v>19696901.71715232</v>
+      </c>
+      <c r="T25" t="n">
+        <v>19615469.92729864</v>
+      </c>
+      <c r="U25" t="n">
+        <v>39494808.5047576</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W25" t="n">
+        <v>11418065.71416126</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.01250887421962444</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5939733.831918536</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9780151.780150803</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>29568371.60428504</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>215951</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.7296934371603994</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.7598493125037773</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>231122</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>19038400.71408848</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>18918091.72877223</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>38153739.56996013</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11047995.31380077</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.01848007625731668</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>27896341.38121903</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>9431478.388850864</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>28568696.20521098</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>066-PI588401_13-86</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>72.71310448646545</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9794494604447874</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02055053955521262</v>
+      </c>
+      <c r="E26" t="n">
+        <v>33</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1111857.424242424</v>
+      </c>
+      <c r="G26" t="n">
+        <v>49</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36684676</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6288445.320454358</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.480077525683787</v>
+      </c>
+      <c r="L26" t="n">
+        <v>12</v>
+      </c>
+      <c r="M26" t="n">
+        <v>24</v>
+      </c>
+      <c r="N26" t="n">
+        <v>174</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3286013</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.769515095109793</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.785660849473888</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3352163</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20632214.82747016</v>
+      </c>
+      <c r="T26" t="n">
+        <v>20620748.16052084</v>
+      </c>
+      <c r="U26" t="n">
+        <v>41293257.20160223</v>
+      </c>
+      <c r="V26" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W26" t="n">
+        <v>11903256.54998453</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.00213256001274956</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>14037402.52484667</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10333521.33493207</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>30945184.00949873</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>229074</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.7543731130602964</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.7702011625160533</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>238365</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>20230822.65764955</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>20218622.73006502</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>40480717.24847409</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11665002.11028118</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.002583403424609324</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>39955521.49661022</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>10139352.84478246</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>30344721.98084015</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>007-PI588601_15-11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>72.60353493690491</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8068711869298127</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1931288130701873</v>
+      </c>
+      <c r="E27" t="n">
+        <v>789</v>
+      </c>
+      <c r="F27" t="n">
+        <v>39705.83396704689</v>
+      </c>
+      <c r="G27" t="n">
+        <v>125</v>
+      </c>
+      <c r="H27" t="n">
+        <v>30417711</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1082179.404401988</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28.03510857242948</v>
+      </c>
+      <c r="L27" t="n">
+        <v>16</v>
+      </c>
+      <c r="M27" t="n">
+        <v>40</v>
+      </c>
+      <c r="N27" t="n">
+        <v>535</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2713779</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.6399280731336553</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.7930981840715062</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3275492</v>
+      </c>
+      <c r="S27" t="n">
+        <v>17042816.6964186</v>
+      </c>
+      <c r="T27" t="n">
+        <v>17157035.44578787</v>
+      </c>
+      <c r="U27" t="n">
+        <v>34014036.22678731</v>
+      </c>
+      <c r="V27" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9635135.983675346</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.01611210507158394</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18133926.24779223</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>8842273.275718721</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25189632.3300822</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>164543</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.5456304914421685</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.6762299860010135</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>232755</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>14565548.87153457</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>14686219.16223114</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>29035973.75126281</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8153773.006524839</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-0.01925928985547982</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>15520488.72634599</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>7687261.238839289</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>21402433.74679991</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>069-PI483154_13-91</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>77.23636603355408</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6871063827811363</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3128936172188637</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1947</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15077.88032871084</v>
+      </c>
+      <c r="G28" t="n">
+        <v>231</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8076886</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>238788.9719562925</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.7565943992068</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>57</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1558.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2502755</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.560290928985323</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8154354886320307</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2755938</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2139419.687222033</v>
+      </c>
+      <c r="T28" t="n">
+        <v>733247.7253478577</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8868690.928342758</v>
+      </c>
+      <c r="V28" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2558137.72220595</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.9799420135523949</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>68147.42784166979</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>4052993.815137421</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>141670</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.4460008465571917</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.6491001360691131</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>192021</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1862770.150267642</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>672752.4318121693</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7602791.666365894</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2195760.020714882</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.9576238773336461</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>63087.10747490003</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3530050.585206171</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>006-PI588606_15-9</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>73.42951774597168</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.995264528011111</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00473547198888907</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2464369.866666667</v>
+      </c>
+      <c r="G29" t="n">
+        <v>82</v>
+      </c>
+      <c r="H29" t="n">
+        <v>36961798</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9219825.502075316</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.47439612350056</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14</v>
+      </c>
+      <c r="M29" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>260</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3320943</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.7811953169118323</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.7849122468706241</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3338253</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20863610.65680159</v>
+      </c>
+      <c r="T29" t="n">
+        <v>20854356.99024178</v>
+      </c>
+      <c r="U29" t="n">
+        <v>41732200.52716179</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W29" t="n">
+        <v>12040563.56801664</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.0003042352276847472</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3875531.52932144</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>10442767.077868</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>31289056.45817536</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>234308</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.7750823762796809</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.7787702208462793</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>237357</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>20713696.45069742</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>20702820.69779955</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>41405641.3955991</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11942855.4475942</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-0.00045336167757086</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>40689417.17544287</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>10385162.83497178</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>31055468.04880667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>079-PI224212_16-9</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>76.35665893554688</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8024426416624658</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1975573583375342</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F30" t="n">
+        <v>31511.00095057034</v>
+      </c>
+      <c r="G30" t="n">
+        <v>284</v>
+      </c>
+      <c r="H30" t="n">
+        <v>26908119</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>829994.7769567033</v>
+      </c>
+      <c r="K30" t="n">
+        <v>32.278101487486</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2073.25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2880849</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6386368124976836</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.7958659963216606</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3357120</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15408029.17299856</v>
+      </c>
+      <c r="T30" t="n">
+        <v>15731581.76151865</v>
+      </c>
+      <c r="U30" t="n">
+        <v>33030001.44308868</v>
+      </c>
+      <c r="V30" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9998460.718937041</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.008642491444007942</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>6468209.406512757</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>23867361.11492749</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>177895</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.5545742883833239</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6911076999028628</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>237810</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>13645648.12525062</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>14086891.64121959</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>29049227.34527015</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8701036.608102087</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>-0.03787121755836688</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>5868735.605093274</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>20875956.81418199</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>011-PI588463_15-21</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>73.5698344707489</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8936358562418819</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1063641437581181</v>
+      </c>
+      <c r="E31" t="n">
+        <v>405</v>
+      </c>
+      <c r="F31" t="n">
+        <v>85988.11111111111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>131</v>
+      </c>
+      <c r="H31" t="n">
+        <v>33615266</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1668196.33266449</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20.0481059359315</v>
+      </c>
+      <c r="L31" t="n">
+        <v>16</v>
+      </c>
+      <c r="M31" t="n">
+        <v>46</v>
+      </c>
+      <c r="N31" t="n">
+        <v>898</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3064019</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.7029214568210959</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.7865860035844789</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3317097</v>
+      </c>
+      <c r="S31" t="n">
+        <v>18316208.68579406</v>
+      </c>
+      <c r="T31" t="n">
+        <v>18338959.15073612</v>
+      </c>
+      <c r="U31" t="n">
+        <v>37447834.69627279</v>
+      </c>
+      <c r="V31" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11076499.64985851</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.003467184648477318</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8681539.970783107</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>27948789.48517255</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>198709</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.6410551886015394</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.7173561626068236</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>235413</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>16813780.31886661</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>16786295.31133958</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>34352785.52324409</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10139500.6430561</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.00139688527463092</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>7995981.621916741</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>25635278.2435682</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>048-PI483147_13-49</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>78.38535094261169</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8533958598931276</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1466041401068724</v>
+      </c>
+      <c r="E32" t="n">
+        <v>695</v>
+      </c>
+      <c r="F32" t="n">
+        <v>49680.72805755396</v>
+      </c>
+      <c r="G32" t="n">
+        <v>89</v>
+      </c>
+      <c r="H32" t="n">
+        <v>34261737</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1298673.0702234</v>
+      </c>
+      <c r="K32" t="n">
+        <v>26.30584878433712</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" t="n">
+        <v>32</v>
+      </c>
+      <c r="N32" t="n">
+        <v>315</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3040452</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6804406188932131</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.7973329270409467</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3445496</v>
+      </c>
+      <c r="S32" t="n">
+        <v>19323050.34509291</v>
+      </c>
+      <c r="T32" t="n">
+        <v>19629041.60756215</v>
+      </c>
+      <c r="U32" t="n">
+        <v>38164922.06901059</v>
+      </c>
+      <c r="V32" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W32" t="n">
+        <v>10856782.07595443</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.04420296697418228</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10022356.00737196</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>28540766.07207378</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>197914</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.6228609892073007</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.7298617423399533</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>244834</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>17823800.32783312</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>18242865.29274536</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>34962274.1329946</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9914579.807479562</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-0.06409347307744717</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>25926680.59714274</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>9337466.228692189</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>26178101.27546183</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>062-PI588194_13-77</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>75.01276183128357</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8113924403816528</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1886075596183472</v>
+      </c>
+      <c r="E33" t="n">
+        <v>924</v>
+      </c>
+      <c r="F33" t="n">
+        <v>34523.32251082251</v>
+      </c>
+      <c r="G33" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>30633047</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1007207.101553186</v>
+      </c>
+      <c r="K33" t="n">
+        <v>30.34398781696333</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8</v>
+      </c>
+      <c r="M33" t="n">
+        <v>40</v>
+      </c>
+      <c r="N33" t="n">
+        <v>418</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2801965</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.6578985997889403</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.8108266321528532</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3192814</v>
+      </c>
+      <c r="S33" t="n">
+        <v>16899381.41168961</v>
+      </c>
+      <c r="T33" t="n">
+        <v>16992240.06155116</v>
+      </c>
+      <c r="U33" t="n">
+        <v>34514215.47635064</v>
+      </c>
+      <c r="V33" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9987163.032692466</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.003096291084941286</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8280952.349931218</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>25303326.56821562</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>180350</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.5954906379582154</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7339119867546657</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>226478</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>15419052.99143739</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15520046.93987908</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>31418616.52460757</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>9089938.350694247</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.007529813062340814</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>7546949.856948336</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>23031521.34353446</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>047-PI483146_13-47</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>79.24666094779968</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.886936577400164</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1130634225998361</v>
+      </c>
+      <c r="E34" t="n">
+        <v>451</v>
+      </c>
+      <c r="F34" t="n">
+        <v>80100.79379157428</v>
+      </c>
+      <c r="G34" t="n">
+        <v>101</v>
+      </c>
+      <c r="H34" t="n">
+        <v>35966765</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1691713.920150166</v>
+      </c>
+      <c r="K34" t="n">
+        <v>21.16604994667286</v>
+      </c>
+      <c r="L34" t="n">
+        <v>12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>34</v>
+      </c>
+      <c r="N34" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3198549</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7059715486939091</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.7959662130107327</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3493078</v>
+      </c>
+      <c r="S34" t="n">
+        <v>20077885.27339541</v>
+      </c>
+      <c r="T34" t="n">
+        <v>20221973.23863008</v>
+      </c>
+      <c r="U34" t="n">
+        <v>40116931.81476268</v>
+      </c>
+      <c r="V34" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W34" t="n">
+        <v>11516683.97902817</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.01471905753559209</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10161610.24333498</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>29886834.85157944</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>212978</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.6610456786809729</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.7453133578261767</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>248052</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>18847743.65308191</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>19048683.80839114</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>37601859.91549483</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>10774130.71287648</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.0228940178369111</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>9605807.328693969</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>27975907.12390971</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>097-PI483159_16-67</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>71.44104170799255</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9416765479665403</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05832345203345967</v>
+      </c>
+      <c r="E35" t="n">
+        <v>212</v>
+      </c>
+      <c r="F35" t="n">
+        <v>154492.2877358491</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>32672343</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2238621.503479368</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14.45698956691587</v>
+      </c>
+      <c r="L35" t="n">
+        <v>24</v>
+      </c>
+      <c r="M35" t="n">
+        <v>29</v>
+      </c>
+      <c r="N35" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2918427</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7427366231070061</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7887385798349488</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3063375</v>
+      </c>
+      <c r="S35" t="n">
+        <v>18191057.47602846</v>
+      </c>
+      <c r="T35" t="n">
+        <v>18137608.19438224</v>
+      </c>
+      <c r="U35" t="n">
+        <v>36632666.80088992</v>
+      </c>
+      <c r="V35" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W35" t="n">
+        <v>10606429.53634093</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.01894919477821958</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>13504098.32234388</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8968059.503975803</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>27317712.63610474</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>199022</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.7122781563043331</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.7563936447630867</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>217730</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>17370126.9142326</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>17270051.49260719</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>35149768.30955166</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>10214639.50272223</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.03380330611466491</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>31933916.25961263</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>8440462.986275963</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>26136926.77674571</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>058-PI483153_13-70</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>77.65933012962341</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8510576825610445</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1489423174389555</v>
+      </c>
+      <c r="E36" t="n">
+        <v>758</v>
+      </c>
+      <c r="F36" t="n">
+        <v>46203.11213720316</v>
+      </c>
+      <c r="G36" t="n">
+        <v>110</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34576604</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1255032.124301573</v>
+      </c>
+      <c r="K36" t="n">
+        <v>27.47706646837937</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8</v>
+      </c>
+      <c r="M36" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="N36" t="n">
+        <v>369.25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3085665</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.6788138350927471</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7976120173782194</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3442323</v>
+      </c>
+      <c r="S36" t="n">
+        <v>19229529.05174889</v>
+      </c>
+      <c r="T36" t="n">
+        <v>19149062.79876139</v>
+      </c>
+      <c r="U36" t="n">
+        <v>38504214.07559828</v>
+      </c>
+      <c r="V36" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W36" t="n">
+        <v>11088706.41122129</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.01149216075243235</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>9791791.380932353</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>28934577.27757188</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>201447</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.6231968512770735</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7322615893692644</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>244293</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17817085.24433465</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>17726770.34209985</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>35450889.96539824</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>10208265.9065859</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>-0.01721219627929502</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>9146747.010926683</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>26823860.55414573</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>010-PI588543_15-19</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>75.72608733177185</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9759959100154201</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02400408998457988</v>
+      </c>
+      <c r="E37" t="n">
+        <v>84</v>
+      </c>
+      <c r="F37" t="n">
+        <v>446801.5714285714</v>
+      </c>
+      <c r="G37" t="n">
+        <v>199</v>
+      </c>
+      <c r="H37" t="n">
+        <v>37444275</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4061001.146998806</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.000663499214333</v>
+      </c>
+      <c r="L37" t="n">
+        <v>10</v>
+      </c>
+      <c r="M37" t="n">
+        <v>68</v>
+      </c>
+      <c r="N37" t="n">
+        <v>592</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3362980</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7678935278819757</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7867794526616853</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3438405</v>
+      </c>
+      <c r="S37" t="n">
+        <v>21003875.71908223</v>
+      </c>
+      <c r="T37" t="n">
+        <v>20928938.399838</v>
+      </c>
+      <c r="U37" t="n">
+        <v>42259548.26999337</v>
+      </c>
+      <c r="V37" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W37" t="n">
+        <v>12211145.5432815</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.01564715914507812</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11345660.80650971</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>10384157.52532263</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>31601368.46705403</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>234905</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7542781358088843</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7728291974061317</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>244476</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>20577910.90912725</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>20481308.96329034</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>41510786.57472393</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>12007548.19585066</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.02073540828970971</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>11028050.50162076</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>10091949.1568829</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>31009389.72030785</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>042-GVIT928_13-36</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>79.26147842407227</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8923673647274462</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1076326352725538</v>
+      </c>
+      <c r="E38" t="n">
+        <v>482</v>
+      </c>
+      <c r="F38" t="n">
+        <v>76058.44190871369</v>
+      </c>
+      <c r="G38" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36455182</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1658745.648888204</v>
+      </c>
+      <c r="K38" t="n">
+        <v>21.88610049427008</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10</v>
+      </c>
+      <c r="M38" t="n">
+        <v>36</v>
+      </c>
+      <c r="N38" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3242651</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.706540899995002</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.7917601292050828</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3582675</v>
+      </c>
+      <c r="S38" t="n">
+        <v>20295825.16420116</v>
+      </c>
+      <c r="T38" t="n">
+        <v>20204034.74457807</v>
+      </c>
+      <c r="U38" t="n">
+        <v>40686314.06729929</v>
+      </c>
+      <c r="V38" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W38" t="n">
+        <v>11635308.82073543</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.004653958956626608</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>21652887.01093123</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>10341720.89175794</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>30360508.48392444</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>214744</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6579920889077043</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.7373556171103068</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>254749</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>18926662.55826324</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>18816745.91326283</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>37914998.16324139</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>10798038.92687009</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.002552806506157476</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>20365472.55166626</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>9746339.603818379</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>28260196.71536698</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>053-PI483149_13-59</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>76.37299180030823</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8491141559355038</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1508858440644962</v>
+      </c>
+      <c r="E39" t="n">
+        <v>716</v>
+      </c>
+      <c r="F39" t="n">
+        <v>47367.57122905028</v>
+      </c>
+      <c r="G39" t="n">
+        <v>102</v>
+      </c>
+      <c r="H39" t="n">
+        <v>33597862</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1254717.981131878</v>
+      </c>
+      <c r="K39" t="n">
+        <v>26.7020457094107</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>33</v>
+      </c>
+      <c r="N39" t="n">
+        <v>299.75</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2978662</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6758880627347258</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.7959919853062305</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3371052</v>
+      </c>
+      <c r="S39" t="n">
+        <v>18307779.6820231</v>
+      </c>
+      <c r="T39" t="n">
+        <v>17933612.01701404</v>
+      </c>
+      <c r="U39" t="n">
+        <v>37320172.93720151</v>
+      </c>
+      <c r="V39" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W39" t="n">
+        <v>10774584.42049797</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.05928562127480547</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>9007131.491808498</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>27676919.19852354</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>191403</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6107519006460222</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.7192812608018906</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>239463</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>16446518.266703</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15918803.40491301</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>33773338.39324354</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9783472.254416045</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.08875118415996111</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>5935136.111070007</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>8005789.281482167</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>25006792.81574052</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>090-PI483162_16-53</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>82.45226573944092</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9226665805648864</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.07733341943511364</v>
+      </c>
+      <c r="E40" t="n">
+        <v>316</v>
+      </c>
+      <c r="F40" t="n">
+        <v>122746.829113924</v>
+      </c>
+      <c r="G40" t="n">
+        <v>94</v>
+      </c>
+      <c r="H40" t="n">
+        <v>38177585</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2144247.157309295</v>
+      </c>
+      <c r="K40" t="n">
+        <v>17.68942199440562</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9</v>
+      </c>
+      <c r="M40" t="n">
+        <v>37</v>
+      </c>
+      <c r="N40" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3448041</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7315855473512762</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7929034851391017</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3631858</v>
+      </c>
+      <c r="S40" t="n">
+        <v>20976997.23069429</v>
+      </c>
+      <c r="T40" t="n">
+        <v>20820308.40906217</v>
+      </c>
+      <c r="U40" t="n">
+        <v>42715707.52329461</v>
+      </c>
+      <c r="V40" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W40" t="n">
+        <v>12484526.34680707</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.01824759239647863</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>10181000.15319294</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>31843079.46422858</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>233221</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.6958616213386219</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7541853536220993</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>257987</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>19958404.41402609</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>19728593.18096727</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>40706205.06118549</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>11911101.33412452</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.02768726253559373</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>9658689.168783225</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>30373084.67201584</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>055-PI483174_13-63</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>67.08590483665466</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9752048115206965</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02479518847930347</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1874461.764705882</v>
+      </c>
+      <c r="G41" t="n">
+        <v>57</v>
+      </c>
+      <c r="H41" t="n">
+        <v>31863561</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7497274.812772136</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.749999993285019</v>
+      </c>
+      <c r="L41" t="n">
+        <v>13</v>
+      </c>
+      <c r="M41" t="n">
+        <v>29</v>
+      </c>
+      <c r="N41" t="n">
+        <v>122</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2851744</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7661279294212705</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.7856072082197793</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2921109</v>
+      </c>
+      <c r="S41" t="n">
+        <v>18015311.15879406</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18069247.13824013</v>
+      </c>
+      <c r="U41" t="n">
+        <v>35836009.16942202</v>
+      </c>
+      <c r="V41" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W41" t="n">
+        <v>10364727.4570499</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-0.0102085622910654</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>28290519.36765943</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>9024300.295660367</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>27014404.43177126</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>198027</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.748131088442915</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.767152786373468</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>207684</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>17678657.72820986</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>17773864.77947257</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>34994259.47319896</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>10148670.36287879</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>-0.01826610764892024</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>34806765.2966419</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>8862545.776762795</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>26509529.48293851</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>099-PI588529_16-73</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>74.67352652549744</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9055174152006518</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.09448258479934818</v>
+      </c>
+      <c r="E42" t="n">
+        <v>379</v>
+      </c>
+      <c r="F42" t="n">
+        <v>91491.77044854881</v>
+      </c>
+      <c r="G42" t="n">
+        <v>89</v>
+      </c>
+      <c r="H42" t="n">
+        <v>34421778</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1765763.639101158</v>
+      </c>
+      <c r="K42" t="n">
+        <v>19.39064708670833</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>34</v>
+      </c>
+      <c r="N42" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3079932</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7231239030048887</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.7985753679233802</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3267693</v>
+      </c>
+      <c r="S42" t="n">
+        <v>19189256.10335817</v>
+      </c>
+      <c r="T42" t="n">
+        <v>19158198.55019803</v>
+      </c>
+      <c r="U42" t="n">
+        <v>38517496.72933766</v>
+      </c>
+      <c r="V42" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W42" t="n">
+        <v>11182889.52151911</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0009288231452411356</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>9465430.169706831</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>28961538.42572498</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>207378</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6846944484164597</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.7561361459456188</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>232151</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>18310925.16342875</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>18298972.17404306</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>36533266.80933034</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>10650341.58374692</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>-0.006285104295013514</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>28232275.81065821</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>9008291.132196754</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>27699569.68885684</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>040-PI588440_13-31</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>74.06263875961304</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.933539205901976</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.06646079409802397</v>
+      </c>
+      <c r="E43" t="n">
+        <v>95</v>
+      </c>
+      <c r="F43" t="n">
+        <v>382292.6</v>
+      </c>
+      <c r="G43" t="n">
+        <v>46</v>
+      </c>
+      <c r="H43" t="n">
+        <v>36245608</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3699020.436761262</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.592202575621009</v>
+      </c>
+      <c r="L43" t="n">
+        <v>15</v>
+      </c>
+      <c r="M43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3222884</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.7338791261743669</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.7861256619268607</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3434667</v>
+      </c>
+      <c r="S43" t="n">
+        <v>20355211.5366284</v>
+      </c>
+      <c r="T43" t="n">
+        <v>20395960.92297119</v>
+      </c>
+      <c r="U43" t="n">
+        <v>40451900.98985904</v>
+      </c>
+      <c r="V43" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W43" t="n">
+        <v>11673495.08371313</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-0.01134824837360973</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>39201082.15801757</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>10272266.56137238</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>30462176.70537991</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>216333</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.692731871237121</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.7420490396734978</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>244138</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>19365117.39252941</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>19445054.62650375</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>38193146.9228086</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>11019786.41751488</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>-0.02121193044081729</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>37042911.67755895</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>9872204.568241341</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>28911345.7889472</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>098-PI483166_16-69</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>71.01980972290039</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9142144623300605</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.08578553766993952</v>
+      </c>
+      <c r="E44" t="n">
+        <v>271</v>
+      </c>
+      <c r="F44" t="n">
+        <v>119739.9151291513</v>
+      </c>
+      <c r="G44" t="n">
+        <v>79</v>
+      </c>
+      <c r="H44" t="n">
+        <v>32360387</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1962103.474875837</v>
+      </c>
+      <c r="K44" t="n">
+        <v>16.37081418933938</v>
+      </c>
+      <c r="L44" t="n">
+        <v>24</v>
+      </c>
+      <c r="M44" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>284</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2876696</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7240035833888504</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7919406367118508</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3101689</v>
+      </c>
+      <c r="S44" t="n">
+        <v>18127026.49527643</v>
+      </c>
+      <c r="T44" t="n">
+        <v>18125104.65562095</v>
+      </c>
+      <c r="U44" t="n">
+        <v>36135930.73687492</v>
+      </c>
+      <c r="V44" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W44" t="n">
+        <v>10383741.19073965</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-0.007427355545754385</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>14134352.07413645</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>9174744.884655476</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>27098083.89369228</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>192540</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.6814441210893522</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7453875968583498</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>220528</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>17127871.68138257</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>17122848.24183243</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>34017557.95215198</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>9758419.104234338</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>-0.01228114301729236</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>25983582.69408089</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>8742600.750996441</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>25551029.56432826</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>045-PI483172_13-41</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>71.41279315948486</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9862512791691275</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01374872083087249</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2752882.461538462</v>
+      </c>
+      <c r="G45" t="n">
+        <v>69</v>
+      </c>
+      <c r="H45" t="n">
+        <v>35786010</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9535842.539165173</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.17542647946601</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="n">
+        <v>44</v>
+      </c>
+      <c r="N45" t="n">
+        <v>202</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3211454</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7762043975768709</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.7870249843739501</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3246648</v>
+      </c>
+      <c r="S45" t="n">
+        <v>20201292.6507342</v>
+      </c>
+      <c r="T45" t="n">
+        <v>20222947.13235269</v>
+      </c>
+      <c r="U45" t="n">
+        <v>40356195.51126008</v>
+      </c>
+      <c r="V45" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W45" t="n">
+        <v>11661786.25723179</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-0.002289150234523483</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>9998420.212944262</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>10094348.74462163</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>30322378.97388782</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>225435</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.766228448094343</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7769099663321666</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>230914</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>19970775.6533967</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>20017786.60220725</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>39837652.86723834</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>11533426.9619192</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>-0.00530187784421581</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>9908386.879881358</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>9962814.972604802</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>30002911.79139106</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>085-PI588328_16-37</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>80.62446188926697</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8020207094530242</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1979792905469758</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1082</v>
+      </c>
+      <c r="F46" t="n">
+        <v>32487.09519408503</v>
+      </c>
+      <c r="G46" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>34250268</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1040736.636357293</v>
+      </c>
+      <c r="K46" t="n">
+        <v>32.84772950131262</v>
+      </c>
+      <c r="L46" t="n">
+        <v>14</v>
+      </c>
+      <c r="M46" t="n">
+        <v>39</v>
+      </c>
+      <c r="N46" t="n">
+        <v>455.75</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3073840</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6435254132402711</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.8023800453720872</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3468927</v>
+      </c>
+      <c r="S46" t="n">
+        <v>18589756.10797275</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18568408.5117837</v>
+      </c>
+      <c r="U46" t="n">
+        <v>37996055.18069483</v>
+      </c>
+      <c r="V46" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W46" t="n">
+        <v>11077938.60642168</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.01610659781016033</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8909361.986836132</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>28130687.6998154</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>194641</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.5730352088239469</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.7144892919470311</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>245678</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>16777382.67873755</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>16782761.01960429</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>34073929.90532983</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>9883697.833340067</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.009458061807374355</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>8094102.396217689</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>25289801.22644375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>054-PI483133_13-61</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>74.12007689476013</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8748486491898476</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1251513508101524</v>
+      </c>
+      <c r="E47" t="n">
+        <v>521</v>
+      </c>
+      <c r="F47" t="n">
+        <v>62793.75047984645</v>
+      </c>
+      <c r="G47" t="n">
+        <v>95</v>
+      </c>
+      <c r="H47" t="n">
+        <v>32478775</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1421535.561246709</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.75961964752617</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>32</v>
+      </c>
+      <c r="N47" t="n">
+        <v>283</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2893581</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7022782666570723</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.8027425855974243</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3158988</v>
+      </c>
+      <c r="S47" t="n">
+        <v>17912327.37351806</v>
+      </c>
+      <c r="T47" t="n">
+        <v>17862938.74867889</v>
+      </c>
+      <c r="U47" t="n">
+        <v>36221746.48180038</v>
+      </c>
+      <c r="V47" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W47" t="n">
+        <v>10523005.77479826</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.02098692740016377</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>8711975.720411085</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>27059156.41912165</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>191485</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.6535380516701588</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.7470298459914944</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>224330</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>16650339.45679277</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>16572735.73323477</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>33770510.95985531</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>9870432.183888601</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.03401962794670327</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>7956397.55448151</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>25262719.7160221</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>088-PI588510_16-47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>72.7512104511261</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9960789054524427</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.003921094547557259</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6083662.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>40</v>
+      </c>
+      <c r="H48" t="n">
+        <v>36501636</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13603331.29695101</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.788854381885285</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8</v>
+      </c>
+      <c r="M48" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="N48" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3280863</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7823697794515649</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.7854496016017868</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3293131</v>
+      </c>
+      <c r="S48" t="n">
+        <v>20620102.72235927</v>
+      </c>
+      <c r="T48" t="n">
+        <v>20615872.40872247</v>
+      </c>
+      <c r="U48" t="n">
+        <v>41228540.39293828</v>
+      </c>
+      <c r="V48" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W48" t="n">
+        <v>11903504.11657905</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.0005605052318667599</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>27374305.2861665</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>10317650.00884613</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>30935884.8952441</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>231907</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.7776789864384893</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.7807403431410376</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>234171</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>20513335.96824997</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>20509318.2252925</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>40981349.6727777</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>11840078.06714339</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.001491645871553357</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>40434948.1705021</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>10265792.13161241</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>30782532.36954902</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>078-PI588599_16-7</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>75.70128154754639</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9917318358856209</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.008268164114379134</v>
+      </c>
+      <c r="E49" t="n">
+        <v>17</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2320160.764705882</v>
+      </c>
+      <c r="G49" t="n">
+        <v>38</v>
+      </c>
+      <c r="H49" t="n">
+        <v>39441462</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9280325.309141343</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.749999999563364</v>
+      </c>
+      <c r="L49" t="n">
+        <v>9</v>
+      </c>
+      <c r="M49" t="n">
+        <v>19</v>
+      </c>
+      <c r="N49" t="n">
+        <v>160</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3540569</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7783549893353898</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.7848442100684561</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3570052</v>
+      </c>
+      <c r="S49" t="n">
+        <v>22256538.78744409</v>
+      </c>
+      <c r="T49" t="n">
+        <v>22263040.85292614</v>
+      </c>
+      <c r="U49" t="n">
+        <v>44491976.5760049</v>
+      </c>
+      <c r="V49" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W49" t="n">
+        <v>12838045.01093573</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.002038098285266258</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>19992090.33779629</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>11138161.75333276</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>33373833.05106082</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>249170</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.7703053936361869</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.7767275041123398</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>253826</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>22034563.24793107</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>22048590.63330403</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>44031973.58409199</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>12704348.88538558</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.004135056063518714</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>14607227.74194744</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>11029331.6823748</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>33041165.68163183</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>100-PI588467_16-77</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>68.01548624038696</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9974199531353718</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.002580046864628197</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>16404922.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>16404922.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>32809817</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16404894.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>28</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8202475.25</v>
+      </c>
+      <c r="N50" t="n">
+        <v>24607369.75</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2949522</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.783281423215361</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.7853075535065545</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2957506</v>
+      </c>
+      <c r="S50" t="n">
+        <v>18548596.82950731</v>
+      </c>
+      <c r="T50" t="n">
+        <v>18555860.99072526</v>
+      </c>
+      <c r="U50" t="n">
+        <v>37064786.58720589</v>
+      </c>
+      <c r="V50" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W50" t="n">
+        <v>10701237.52222116</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.001808730818724828</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>36935503.76632537</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>9279036.335976696</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>27820006.17752394</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>208650</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.7791967120991159</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.781212276383408</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>210312</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>18487461.38433201</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>18508820.74582582</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>36871498.52839746</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>10653342.02050903</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.005094113194213497</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>36864429.94492688</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>9257502.878181286</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>27722321.69190276</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>057-PI588483_13-67</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>67.02346324920654</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9813789311861995</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01862106881380056</v>
+      </c>
+      <c r="E51" t="n">
+        <v>30</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1043171.533333333</v>
+      </c>
+      <c r="G51" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>31291298</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5616936.077172861</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.199469457880296</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8</v>
+      </c>
+      <c r="M51" t="n">
+        <v>16</v>
+      </c>
+      <c r="N51" t="n">
+        <v>219.75</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2804425</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.7710096768534485</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.7856391169122856</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2855302</v>
+      </c>
+      <c r="S51" t="n">
+        <v>17616518.46398769</v>
+      </c>
+      <c r="T51" t="n">
+        <v>17603581.42556912</v>
+      </c>
+      <c r="U51" t="n">
+        <v>35241406.21106238</v>
+      </c>
+      <c r="V51" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W51" t="n">
+        <v>10181336.95405297</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.003708552739451097</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>23248413.95509519</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>8794363.987751476</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>26439703.46287212</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>195954</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.7575872683143968</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.771962026328297</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>203033</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>17313665.88950874</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>17294349.7482873</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>34627930.13483631</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>10021117.2431949</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.006156407488404427</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>22859975.65843289</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>8621374.544476045</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>26009559.73833526</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>096-PI483185_16-65</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>69.56481337547302</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9770917314606575</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02290826853934244</v>
+      </c>
+      <c r="E52" t="n">
+        <v>36</v>
+      </c>
+      <c r="F52" t="n">
+        <v>916343.4444444445</v>
+      </c>
+      <c r="G52" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>32984244</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5420464.52533968</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5.747048910627357</v>
+      </c>
+      <c r="L52" t="n">
+        <v>12</v>
+      </c>
+      <c r="M52" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>104</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2956532</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.7699216301030611</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.7879727207926556</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3014870</v>
+      </c>
+      <c r="S52" t="n">
+        <v>18751423.91303273</v>
+      </c>
+      <c r="T52" t="n">
+        <v>18851698.48772851</v>
+      </c>
+      <c r="U52" t="n">
+        <v>37152738.6151358</v>
+      </c>
+      <c r="V52" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W52" t="n">
+        <v>10732630.67333782</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.02508920432751357</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>30679813.67805</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>9460130.302900225</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>28175445.97035109</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>206526</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.7563123741811262</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.7740443909503895</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>214371</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>18582146.48193161</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>18759843.81632468</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>36496156.74610981</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>10563586.33376073</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.04629415898667205</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>36418932.47169376</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>9439298.009315189</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>27966055.2856976</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>073-PI588457_13-100</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>78.79818105697632</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.7603057456514403</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2396942543485597</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24292.80816640986</v>
+      </c>
+      <c r="G53" t="n">
+        <v>112</v>
+      </c>
+      <c r="H53" t="n">
+        <v>28212671</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>783484.4649628515</v>
+      </c>
+      <c r="K53" t="n">
+        <v>35.88150922901966</v>
+      </c>
+      <c r="L53" t="n">
+        <v>9</v>
+      </c>
+      <c r="M53" t="n">
+        <v>40</v>
+      </c>
+      <c r="N53" t="n">
+        <v>393.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2755919</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.6188738129910457</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.813980186958585</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3100658</v>
+      </c>
+      <c r="S53" t="n">
+        <v>14374809.76686725</v>
+      </c>
+      <c r="T53" t="n">
+        <v>14296602.76832375</v>
+      </c>
+      <c r="U53" t="n">
+        <v>31366590.96486596</v>
+      </c>
+      <c r="V53" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W53" t="n">
+        <v>9680274.106416987</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.05018810713938</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>5624735.761321047</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>22838797.39695688</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>174277</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.5503491097024737</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.7238523618296835</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>219294</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>13055003.098519</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>12994972.2096022</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>28302961.64536398</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>8682714.91875677</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.04190971195680063</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>5281513.033275086</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>20648701.85560294</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>002-PI588331_13-109</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>77.73015260696411</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9795124803074164</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.02048751969258351</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1537843.384615385</v>
+      </c>
+      <c r="G54" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>39981005</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>7688632.325455694</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.79999999517359</v>
+      </c>
+      <c r="L54" t="n">
+        <v>8</v>
+      </c>
+      <c r="M54" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="N54" t="n">
+        <v>112.25</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3582891</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7692060172489547</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.7852947590902998</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3656804</v>
+      </c>
+      <c r="S54" t="n">
+        <v>22368723.31988376</v>
+      </c>
+      <c r="T54" t="n">
+        <v>22260904.56992169</v>
+      </c>
+      <c r="U54" t="n">
+        <v>45023936.17685195</v>
+      </c>
+      <c r="V54" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W54" t="n">
+        <v>13002030.54420945</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.02192421937469324</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>39714053.97286633</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>11011982.82599398</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>33650444.00102409</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>250615</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.7566214921290259</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.7724470155720353</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>259987</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>21918193.56696277</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>21744023.04301554</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>44287326.16196658</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>12794145.12727919</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.03549649508709958</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>32669048.94055264</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>10685489.27517792</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>33035289.92162192</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>003-PI597269_15-1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>79.00293302536011</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.9227283376427946</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.07727166235720541</v>
+      </c>
+      <c r="E55" t="n">
+        <v>309</v>
+      </c>
+      <c r="F55" t="n">
+        <v>123358.3139158576</v>
+      </c>
+      <c r="G55" t="n">
+        <v>71</v>
+      </c>
+      <c r="H55" t="n">
+        <v>38049532</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2161044.354784946</v>
+      </c>
+      <c r="K55" t="n">
+        <v>17.49294734520394</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10</v>
+      </c>
+      <c r="M55" t="n">
+        <v>29</v>
+      </c>
+      <c r="N55" t="n">
+        <v>209</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3377158</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.7267202658462386</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.7875777042923826</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3645933</v>
+      </c>
+      <c r="S55" t="n">
+        <v>21375400.50126602</v>
+      </c>
+      <c r="T55" t="n">
+        <v>21632479.22505351</v>
+      </c>
+      <c r="U55" t="n">
+        <v>42436206.30809004</v>
+      </c>
+      <c r="V55" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W55" t="n">
+        <v>12164728.50678829</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.03310330495505993</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>28462000.06106298</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>10856175.53833919</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>31875164.54999969</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>224850</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.6804109892380945</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.7373903688449356</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>259181</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>20038045.25424771</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>20385618.0145574</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>39733567.9756341</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>11329687.6742875</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-0.04578262024884063</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>26731968.96902823</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>10250859.74903082</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>29787010.74501162</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>086-PI588143_16-41</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>79.13968944549561</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8558064580188957</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.1441935419811044</v>
+      </c>
+      <c r="E56" t="n">
+        <v>672</v>
+      </c>
+      <c r="F56" t="n">
+        <v>53542.375</v>
+      </c>
+      <c r="G56" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>35253436</v>
+      </c>
+      <c r="I56" t="n">
+        <v>8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1358883.51097029</v>
+      </c>
+      <c r="K56" t="n">
+        <v>25.86468033105916</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8</v>
+      </c>
+      <c r="M56" t="n">
+        <v>34</v>
+      </c>
+      <c r="N56" t="n">
+        <v>526.25</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3164783</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6804627859042902</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.7951129364920801</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3563624</v>
+      </c>
+      <c r="S56" t="n">
+        <v>19483822.26803271</v>
+      </c>
+      <c r="T56" t="n">
+        <v>19562364.44508236</v>
+      </c>
+      <c r="U56" t="n">
+        <v>39331407.98765909</v>
+      </c>
+      <c r="V56" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W56" t="n">
+        <v>11405463.76007446</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.01086355523102325</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>9584355.159608472</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>29438033.20827291</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>204728</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.6190136432209182</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.7233103202491268</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>252986</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>17765588.57903546</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>17839779.3203357</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>35900098.4449534</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>10422867.63673553</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.008951543897549243</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>8641387.471427117</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>26869055.30971073</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>064-PI483137_13-81</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>76.51857805252075</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9198691185949123</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.08013088140508771</v>
+      </c>
+      <c r="E57" t="n">
+        <v>256</v>
+      </c>
+      <c r="F57" t="n">
+        <v>143103.953125</v>
+      </c>
+      <c r="G57" t="n">
+        <v>114</v>
+      </c>
+      <c r="H57" t="n">
+        <v>36385752</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2269605.46546569</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15.90603753168856</v>
+      </c>
+      <c r="L57" t="n">
+        <v>26</v>
+      </c>
+      <c r="M57" t="n">
+        <v>39</v>
+      </c>
+      <c r="N57" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3244459</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7263584475059119</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7896323866328013</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3463650</v>
+      </c>
+      <c r="S57" t="n">
+        <v>19868955.62565161</v>
+      </c>
+      <c r="T57" t="n">
+        <v>19672445.85166415</v>
+      </c>
+      <c r="U57" t="n">
+        <v>40601553.89750544</v>
+      </c>
+      <c r="V57" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W57" t="n">
+        <v>11743852.4653787</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.04258824399218486</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>9677566.213640481</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>30010952.89413746</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>215396</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.6781236185249079</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.737195764937443</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>246154</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>18272144.56888619</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>17934675.0534282</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>37955819.23278397</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>10987139.92749541</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.08003313043090764</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>8680441.395102054</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>27748740.52262405</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>063-PI483189_13-79</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>70.4892725944519</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9927285193232097</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.007271480676790281</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2508310.785714286</v>
+      </c>
+      <c r="G58" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>35115642</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>9043646.511562999</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.328201177235016</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11</v>
+      </c>
+      <c r="M58" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>98</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3153827</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7800775276400985</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.7857913945817881</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3174815</v>
+      </c>
+      <c r="S58" t="n">
+        <v>19817039.88698994</v>
+      </c>
+      <c r="T58" t="n">
+        <v>19804662.92008313</v>
+      </c>
+      <c r="U58" t="n">
+        <v>39632158.93557254</v>
+      </c>
+      <c r="V58" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W58" t="n">
+        <v>11434682.43515656</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0003733296997195869</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>39580297.52404708</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>9924335.174987307</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>29713466.06099109</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>222103</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.7725326801835908</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.7781912830612171</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>225652</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>19635845.25543788</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>19617704.77777259</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>39248839.86413927</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>11326723.76209548</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>3.012226641652255e-05</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>39240357.56397458</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>9840484.299917128</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>29435392.89599711</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>082-PI588628_16-31</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>73.58011484146118</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9738321386118501</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.02616786138814988</v>
+      </c>
+      <c r="E59" t="n">
+        <v>75</v>
+      </c>
+      <c r="F59" t="n">
+        <v>497373.7733333333</v>
+      </c>
+      <c r="G59" t="n">
+        <v>86</v>
+      </c>
+      <c r="H59" t="n">
+        <v>37140843</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4259734.642999335</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8.485968090803963</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11</v>
+      </c>
+      <c r="M59" t="n">
+        <v>26</v>
+      </c>
+      <c r="N59" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3332141</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7635634104466257</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.7840811369555413</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3426254</v>
+      </c>
+      <c r="S59" t="n">
+        <v>21075696.92235253</v>
+      </c>
+      <c r="T59" t="n">
+        <v>21196809.43903899</v>
+      </c>
+      <c r="U59" t="n">
+        <v>41872918.74530139</v>
+      </c>
+      <c r="V59" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W59" t="n">
+        <v>12057270.32376237</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.01934643289352675</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>26990993.28331671</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>10660369.4930189</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>31475148.69901075</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>229386</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.7391816591318404</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.7590442231507244</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>243621</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>20549119.6380108</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>20780221.68680236</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>40535852.19954459</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>11662408.4744196</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.03823474932662272</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>36401791.15677761</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>10490308.01409661</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>30607850.00053238</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>089-PI483143_16-49</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>78.19219565391541</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8640516026558281</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.1359483973441718</v>
+      </c>
+      <c r="E60" t="n">
+        <v>583</v>
+      </c>
+      <c r="F60" t="n">
+        <v>62907.95883361921</v>
+      </c>
+      <c r="G60" t="n">
+        <v>156</v>
+      </c>
+      <c r="H60" t="n">
+        <v>35927198</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1486632.941144413</v>
+      </c>
+      <c r="K60" t="n">
+        <v>24.08272358478296</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8</v>
+      </c>
+      <c r="M60" t="n">
+        <v>40</v>
+      </c>
+      <c r="N60" t="n">
+        <v>650</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3211717</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.6826986563173416</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.7901132920984539</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3569831</v>
+      </c>
+      <c r="S60" t="n">
+        <v>19543676.85337235</v>
+      </c>
+      <c r="T60" t="n">
+        <v>19419478.52801179</v>
+      </c>
+      <c r="U60" t="n">
+        <v>39796841.22247373</v>
+      </c>
+      <c r="V60" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W60" t="n">
+        <v>11755201.14550509</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.01870622080131353</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>9207046.740319684</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>29921137.90176399</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>203205</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.607419462136943</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.7029897986068457</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>253132</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>17537588.07462087</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>17334640.67406959</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>35582719.0471245</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>10648775.19686195</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.02569473977584475</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>8090303.032602253</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>27123745.20788496</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>081-PI588627_16-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>73.65365195274353</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9970383531827638</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.002961646817236247</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7716144.2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>179</v>
+      </c>
+      <c r="H61" t="n">
+        <v>38580179</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15432017.40043734</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.49999999978745</v>
+      </c>
+      <c r="L61" t="n">
+        <v>11</v>
+      </c>
+      <c r="M61" t="n">
+        <v>23</v>
+      </c>
+      <c r="N61" t="n">
+        <v>329</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3466720</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7823191043240062</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.784642939588706</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3479390</v>
+      </c>
+      <c r="S61" t="n">
+        <v>21807024.35377422</v>
+      </c>
+      <c r="T61" t="n">
+        <v>21819561.06757478</v>
+      </c>
+      <c r="U61" t="n">
+        <v>43564088.33621123</v>
+      </c>
+      <c r="V61" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W61" t="n">
+        <v>12577400.82034227</v>
+      </c>
+      <c r="X61" t="n">
+        <v>-0.002847718533985841</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>36348340.09936944</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>10915127.5244838</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>32712245.05414134</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>245083</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.777751564070903</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.7800618317120404</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>247448</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>21703102.96751318</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>21727500.22915307</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>43309741.06798578</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>12510037.16209818</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>-0.005584807558996686</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>36146085.14972949</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>10867196.04901844</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>32560767.07751274</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>077-PI597270_16-4</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>78.92386388778687</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8937668253571236</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1062331746428764</v>
+      </c>
+      <c r="E62" t="n">
+        <v>460</v>
+      </c>
+      <c r="F62" t="n">
+        <v>79831.67173913044</v>
+      </c>
+      <c r="G62" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>36559283</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1702715.180066952</v>
+      </c>
+      <c r="K62" t="n">
+        <v>21.37760142686517</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>32</v>
+      </c>
+      <c r="N62" t="n">
+        <v>333.25</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3259939</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7121228702421079</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.7967658342628279</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3555146</v>
+      </c>
+      <c r="S62" t="n">
+        <v>20427100.38784072</v>
+      </c>
+      <c r="T62" t="n">
+        <v>20381358.8003173</v>
+      </c>
+      <c r="U62" t="n">
+        <v>40944175.99230594</v>
+      </c>
+      <c r="V62" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W62" t="n">
+        <v>11716694.85550978</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.00441053422228934</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>9350008.055613942</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>10349926.73176912</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>30525687.14246488</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>219645</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.6747289071728748</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.7549272226604209</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>252673</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>19336453.07328324</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>19252170.65505037</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>38810410.97437674</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>11094599.76038574</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.009275053991239377</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>14520637.59443287</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>9798647.12150065</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>28908385.8196189</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>095-GVIT1628_16-63</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>71.44915413856506</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9907016486207633</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.009298351379236737</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3303675.363636364</v>
+      </c>
+      <c r="G63" t="n">
+        <v>115</v>
+      </c>
+      <c r="H63" t="n">
+        <v>36338000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>16</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10446370.69098731</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.846049884806422</v>
+      </c>
+      <c r="L63" t="n">
+        <v>16</v>
+      </c>
+      <c r="M63" t="n">
+        <v>21</v>
+      </c>
+      <c r="N63" t="n">
+        <v>215</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3263474</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7800902968532702</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.7874119296554091</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3285048</v>
+      </c>
+      <c r="S63" t="n">
+        <v>20505055.49496058</v>
+      </c>
+      <c r="T63" t="n">
+        <v>20500959.23263946</v>
+      </c>
+      <c r="U63" t="n">
+        <v>41010023.77432518</v>
+      </c>
+      <c r="V63" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W63" t="n">
+        <v>11842480.55535053</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.001335810016139706</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>4149302.47952587</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>10248161.12094138</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>30762867.96303295</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>229838</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.7725900101172177</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.7798412480617181</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>233599</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>20332698.04809502</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>20337374.93237071</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>40615727.19276211</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>11739849.97122516</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0003413409542951226</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>4085464.531406762</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>10157819.51909935</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>30511805.62262592</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>043-PI588455_13-37</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>74.28074836730957</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9884945386952353</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01150546130476476</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1631809.782608696</v>
+      </c>
+      <c r="G64" t="n">
+        <v>102</v>
+      </c>
+      <c r="H64" t="n">
+        <v>37528466</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7653192.821405274</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4.47721504137962</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9</v>
+      </c>
+      <c r="M64" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3369031</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.7762294526565746</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.785264280449298</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3406022</v>
+      </c>
+      <c r="S64" t="n">
+        <v>21169535.56134401</v>
+      </c>
+      <c r="T64" t="n">
+        <v>21185801.29838081</v>
+      </c>
+      <c r="U64" t="n">
+        <v>42335599.94495147</v>
+      </c>
+      <c r="V64" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W64" t="n">
+        <v>12217471.9961262</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.0002200440654705216</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>31817195.88235565</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>10590776.93255658</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>31754964.07348069</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>237245</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.7686784644362417</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.7776254034249496</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>242229</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>20969398.33134456</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>20990865.47422556</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>41924652.13692621</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>12103777.08452244</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.0008140232116763456</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>25950537.06635594</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>10488364.1536422</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>31464032.17340602</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>067-PI483167_13-87</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>73.26405453681946</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9931802305903026</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.006819769409697468</v>
+      </c>
+      <c r="E65" t="n">
+        <v>19</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1985354.473684211</v>
+      </c>
+      <c r="G65" t="n">
+        <v>24</v>
+      </c>
+      <c r="H65" t="n">
+        <v>37718660</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8422420.888007989</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.006938420260624</v>
+      </c>
+      <c r="L65" t="n">
+        <v>23</v>
+      </c>
+      <c r="M65" t="n">
+        <v>16</v>
+      </c>
+      <c r="N65" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3386988</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7796830525618472</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.7850368226705822</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3411146</v>
+      </c>
+      <c r="S65" t="n">
+        <v>21308500.64462365</v>
+      </c>
+      <c r="T65" t="n">
+        <v>21322912.96815408</v>
+      </c>
+      <c r="U65" t="n">
+        <v>42562146.47438715</v>
+      </c>
+      <c r="V65" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W65" t="n">
+        <v>12283000.81653678</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.003018898968373753</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1433345.365015036</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>10678314.2702562</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>31943660.69462591</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>238562</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.7722683544103818</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.777571210767435</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>242556</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>21142271.3937103</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>21170319.13708483</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>42157385.24769496</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>12169208.96932434</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.006205993434352433</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>40339345.57906255</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>10617851.76709384</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>31685323.01468178</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>044-PI483165_13-39</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>74.27082872390747</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9891377198825898</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.01086228011741022</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2748548.357142857</v>
+      </c>
+      <c r="G66" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>38477501</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13</v>
+      </c>
+      <c r="J66" t="n">
+        <v>9909428.522086402</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.328201176024203</v>
+      </c>
+      <c r="L66" t="n">
+        <v>54</v>
+      </c>
+      <c r="M66" t="n">
+        <v>54</v>
+      </c>
+      <c r="N66" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3453622</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.77766035926132</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.7862002870071804</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3485674</v>
+      </c>
+      <c r="S66" t="n">
+        <v>21692270.42571463</v>
+      </c>
+      <c r="T66" t="n">
+        <v>21696837.89215495</v>
+      </c>
+      <c r="U66" t="n">
+        <v>43398890.82811487</v>
+      </c>
+      <c r="V66" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W66" t="n">
+        <v>12529035.11298397</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3.060489095408421e-05</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>34908221.46059326</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>10831071.07144435</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>32542209.49335845</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>242808</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.7688483499188059</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.7772915080117134</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>247805</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>21453994.33238276</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>21472059.29398509</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>42907715.38309672</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>12391748.3586754</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.001196428121131256</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>42450731.46172391</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>10699361.37023893</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>32182376.96860342</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>056-PI483175_13-65</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>69.3479917049408</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5627483533205565</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4372516466794434</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2239</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9844.713264850379</v>
+      </c>
+      <c r="G67" t="n">
+        <v>226</v>
+      </c>
+      <c r="H67" t="n">
+        <v>12589420</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>268702.1447767087</v>
+      </c>
+      <c r="K67" t="n">
+        <v>45.92312737211319</v>
+      </c>
+      <c r="L67" t="n">
+        <v>8</v>
+      </c>
+      <c r="M67" t="n">
+        <v>55</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1208</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1869129</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.4895737669336193</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.86996925720855</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2069757</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4046532.610426712</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1984518.946531444</v>
+      </c>
+      <c r="U67" t="n">
+        <v>13755576.53107844</v>
+      </c>
+      <c r="V67" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W67" t="n">
+        <v>4442954.298841919</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.730843095217335</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>54927.60595536394</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7693697.576788331</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>103599</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.3815899796484453</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.6780828009479425</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>142841</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3485341.314743712</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1897207.803502876</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>11773079.19941958</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>3764288.975423421</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.721652069523558</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>58315.81363226054</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>6532431.414333766</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>008-PI588487_15-15</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>74.21469473838806</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8949532865137636</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.1050467134862364</v>
+      </c>
+      <c r="E68" t="n">
+        <v>287</v>
+      </c>
+      <c r="F68" t="n">
+        <v>123461.5365853659</v>
+      </c>
+      <c r="G68" t="n">
+        <v>114</v>
+      </c>
+      <c r="H68" t="n">
+        <v>35122496</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2069542.119803954</v>
+      </c>
+      <c r="K68" t="n">
+        <v>16.85226008883061</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10</v>
+      </c>
+      <c r="M68" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>573.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3107445</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7016408295698939</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.7839971539778277</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3469525</v>
+      </c>
+      <c r="S68" t="n">
+        <v>19813014.00131504</v>
+      </c>
+      <c r="T68" t="n">
+        <v>19999881.4875772</v>
+      </c>
+      <c r="U68" t="n">
+        <v>39033245.71209219</v>
+      </c>
+      <c r="V68" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W68" t="n">
+        <v>11258729.76219586</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.04155435793208411</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>25537881.01732529</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>10072612.06505144</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>29690463.3195815</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>197967</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.6285889467508519</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.7023706781383888</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>246653</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>17936669.1373986</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>18197361.28665352</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>34974997.58324163</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>10089432.15446981</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>-0.06767889506285885</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>29756969.26526167</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>9226268.574970674</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>26874400.92596035</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>052-PI588549_13-57</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>70.48565316200256</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6260123590348323</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3739876409651677</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1960</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12249.05867346939</v>
+      </c>
+      <c r="G69" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>14944230</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>342251.7872286084</v>
+      </c>
+      <c r="K69" t="n">
+        <v>42.55219338860844</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8</v>
+      </c>
+      <c r="M69" t="n">
+        <v>54</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1175</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2032040</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.523433145240437</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.8361386763153544</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2377746</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5817297.500674878</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4434854.40218126</v>
+      </c>
+      <c r="U69" t="n">
+        <v>16663811.68235958</v>
+      </c>
+      <c r="V69" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W69" t="n">
+        <v>5466688.544159236</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4645764905866403</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>304370.0626503935</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>10717226.03686357</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>111259</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.4030200521679815</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.6437892900219192</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>165909</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>4855150.329710669</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>3835943.534895392</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>13565318.53838439</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>4475656.676876951</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.427078168663368</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>320913.6895641974</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>8931155.215074083</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>076-PI588605_16-1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>72.01937770843506</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9909596372281938</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.009040362771806254</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2849117.615384615</v>
+      </c>
+      <c r="G70" t="n">
+        <v>102</v>
+      </c>
+      <c r="H70" t="n">
+        <v>37037116</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>9869225.03594883</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.175426479695665</v>
+      </c>
+      <c r="L70" t="n">
+        <v>25</v>
+      </c>
+      <c r="M70" t="n">
+        <v>25</v>
+      </c>
+      <c r="N70" t="n">
+        <v>173</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3325274</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.7795488475624376</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.786660544260822</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3349144</v>
+      </c>
+      <c r="S70" t="n">
+        <v>20897899.83772588</v>
+      </c>
+      <c r="T70" t="n">
+        <v>20883265.92584011</v>
+      </c>
+      <c r="U70" t="n">
+        <v>41786612.91192197</v>
+      </c>
+      <c r="V70" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W70" t="n">
+        <v>12057409.59376256</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0005865214881370699</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>32665438.46519551</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>10471452.96038793</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>31348561.364627</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>234008</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.7714524053523099</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.7784902395319894</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>238127</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>20692228.63205532</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>20666064.06375255</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>41352627.01956977</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>11928850.85885111</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0007350509438517545</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>34112276.97065771</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>10391612.91738868</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>31045306.96006772</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>060-PI483182_13-74</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>72.36062788963318</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9923971637713721</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.007602836228627913</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5250053.428571428</v>
+      </c>
+      <c r="G71" t="n">
+        <v>32</v>
+      </c>
+      <c r="H71" t="n">
+        <v>36750220</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12859889.15211773</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2.041241452315918</v>
+      </c>
+      <c r="L71" t="n">
+        <v>11</v>
+      </c>
+      <c r="M71" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>40</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3301958</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.781372934129817</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.787359096392812</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3318746</v>
+      </c>
+      <c r="S71" t="n">
+        <v>20742870.59327241</v>
+      </c>
+      <c r="T71" t="n">
+        <v>20741240.80515663</v>
+      </c>
+      <c r="U71" t="n">
+        <v>41493627.98104818</v>
+      </c>
+      <c r="V71" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W71" t="n">
+        <v>11986715.04380975</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.001354181873709671</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>12891248.9938522</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>10347341.20101521</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>31124333.33056968</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>233137</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.7758192618676972</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.7817628769910814</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>235988</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>20613860.09110731</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>20621973.77435482</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>41198708.61449795</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>11914425.28394237</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0008842885492586698</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>39094391.31530717</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>10267250.02695322</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>30934462.73551973</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>093-PI588372_16-59</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>75.47099590301514</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7088255873562346</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2911744126437654</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1460</v>
+      </c>
+      <c r="F72" t="n">
+        <v>19636.03082191781</v>
+      </c>
+      <c r="G72" t="n">
+        <v>161</v>
+      </c>
+      <c r="H72" t="n">
+        <v>25669378</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8</v>
+      </c>
+      <c r="J72" t="n">
+        <v>671807.9444867426</v>
+      </c>
+      <c r="K72" t="n">
+        <v>38.12122592171787</v>
+      </c>
+      <c r="L72" t="n">
+        <v>12</v>
+      </c>
+      <c r="M72" t="n">
+        <v>46</v>
+      </c>
+      <c r="N72" t="n">
+        <v>575.25</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2484531</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.588831547985625</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.830714294868839</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2957940</v>
+      </c>
+      <c r="S72" t="n">
+        <v>13521344.26053826</v>
+      </c>
+      <c r="T72" t="n">
+        <v>13442083.28336202</v>
+      </c>
+      <c r="U72" t="n">
+        <v>28691813.84685838</v>
+      </c>
+      <c r="V72" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W72" t="n">
+        <v>8858546.476751581</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.02983097487660478</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>5724720.089114197</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>21355343.62911709</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>151342</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.5043925400414883</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.7115890693545119</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>208901</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>12026283.01180105</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>12055999.25282943</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>24980727.41419277</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>7707622.475323738</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>-0.001830939141035369</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>5302674.605040126</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>18872587.72268039</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>005-PI588133_15-5</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>72.28388857841492</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9936371353721357</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.006362864627864308</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2998772.083333333</v>
+      </c>
+      <c r="G73" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>35984664</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>9945620.623953285</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3.015113445709607</v>
+      </c>
+      <c r="L73" t="n">
+        <v>11</v>
+      </c>
+      <c r="M73" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="N73" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3230931</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.7799010111225784</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.784895192982588</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3253341</v>
+      </c>
+      <c r="S73" t="n">
+        <v>20316741.50550171</v>
+      </c>
+      <c r="T73" t="n">
+        <v>20311665.70889006</v>
+      </c>
+      <c r="U73" t="n">
+        <v>40601076.3754221</v>
+      </c>
+      <c r="V73" t="n">
+        <v>12.56637061435917</v>
+      </c>
+      <c r="W73" t="n">
+        <v>11724783.41449618</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-0.0003990970165438557</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>17660626.46497301</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>10167312.23400125</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>30475874.04934957</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>227231</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.7713330054506501</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.7762723211444502</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>231328</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>20119560.97243747</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>20105790.46641593</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>40155032.26506725</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>176.7145867644259</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>11602719.47782981</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>-0.001351647503351746</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>37670778.60433295</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>10085057.28799909</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>30177947.58958123</v>
       </c>
     </row>
   </sheetData>

--- a/hair_model_results.xlsx
+++ b/hair_model_results.xlsx
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.17219519615173</v>
+        <v>74.18423342704773</v>
       </c>
       <c r="C2" t="n">
         <v>0.9968050250274759</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.69945001602173</v>
+        <v>76.53626108169556</v>
       </c>
       <c r="C3" t="n">
         <v>0.7275492881229656</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.02989172935486</v>
+        <v>80.84132838249207</v>
       </c>
       <c r="C4" t="n">
         <v>0.9138866016394833</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.9015097618103</v>
+        <v>71.64689946174622</v>
       </c>
       <c r="C5" t="n">
         <v>0.975486251272613</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.30585050582886</v>
+        <v>75.48572516441345</v>
       </c>
       <c r="C6" t="n">
         <v>0.9910405154944404</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.19136714935303</v>
+        <v>74.43284606933594</v>
       </c>
       <c r="C7" t="n">
         <v>0.962214725964342</v>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.63612866401672</v>
+        <v>78.23055911064148</v>
       </c>
       <c r="C8" t="n">
         <v>0.8634602607771658</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.88944435119629</v>
+        <v>78.1151111125946</v>
       </c>
       <c r="C9" t="n">
         <v>0.9968601672579587</v>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.02900099754333</v>
+        <v>75.17109346389771</v>
       </c>
       <c r="C10" t="n">
         <v>0.9859449535824634</v>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.02839636802673</v>
+        <v>81.77593636512756</v>
       </c>
       <c r="C11" t="n">
         <v>0.8616060073027797</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.57694292068481</v>
+        <v>80.74892258644104</v>
       </c>
       <c r="C12" t="n">
         <v>0.8687194193135875</v>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.97225403785706</v>
+        <v>72.63238096237183</v>
       </c>
       <c r="C13" t="n">
         <v>0.9805602904252919</v>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.47657036781311</v>
+        <v>80.09882664680481</v>
       </c>
       <c r="C14" t="n">
         <v>0.5014527975213358</v>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.17292881011963</v>
+        <v>73.12010288238525</v>
       </c>
       <c r="C15" t="n">
         <v>0.9604286222856271</v>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.23818778991699</v>
+        <v>82.11791443824768</v>
       </c>
       <c r="C16" t="n">
         <v>0.9125087243030369</v>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71.42449116706848</v>
+        <v>72.26289486885071</v>
       </c>
       <c r="C17" t="n">
         <v>0.9814022066379989</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.3595495223999</v>
+        <v>75.09375548362732</v>
       </c>
       <c r="C18" t="n">
         <v>0.9737558159834103</v>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.77107167243958</v>
+        <v>75.12556147575378</v>
       </c>
       <c r="C19" t="n">
         <v>0.9760167819347161</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.20043587684631</v>
+        <v>78.2825014591217</v>
       </c>
       <c r="C20" t="n">
         <v>0.9281892293841153</v>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.03333187103271</v>
+        <v>74.02448844909668</v>
       </c>
       <c r="C21" t="n">
         <v>0.9967725720794085</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.32273411750793</v>
+        <v>79.21310377120972</v>
       </c>
       <c r="C22" t="n">
         <v>0.7655726758938648</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>74.27154731750488</v>
+        <v>75.94593334197998</v>
       </c>
       <c r="C23" t="n">
         <v>0.8158889924545687</v>
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.21257567405701</v>
+        <v>75.21190619468689</v>
       </c>
       <c r="C24" t="n">
         <v>0.992109701865921</v>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.84378862380981</v>
+        <v>75.0446081161499</v>
       </c>
       <c r="C25" t="n">
         <v>0.9603133478610233</v>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>72.71310448646545</v>
+        <v>73.90202188491821</v>
       </c>
       <c r="C26" t="n">
         <v>0.9794494604447874</v>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>72.60353493690491</v>
+        <v>73.38020038604736</v>
       </c>
       <c r="C27" t="n">
         <v>0.8068711869298127</v>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.23636603355408</v>
+        <v>78.31720852851868</v>
       </c>
       <c r="C28" t="n">
         <v>0.6871063827811363</v>
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.42951774597168</v>
+        <v>74.22487473487854</v>
       </c>
       <c r="C29" t="n">
         <v>0.995264528011111</v>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.35665893554688</v>
+        <v>76.92853903770447</v>
       </c>
       <c r="C30" t="n">
         <v>0.8024426416624658</v>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.5698344707489</v>
+        <v>74.50643658638</v>
       </c>
       <c r="C31" t="n">
         <v>0.8936358562418819</v>
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.38535094261169</v>
+        <v>79.07842469215393</v>
       </c>
       <c r="C32" t="n">
         <v>0.8533958598931276</v>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.01276183128357</v>
+        <v>76.15758848190308</v>
       </c>
       <c r="C33" t="n">
         <v>0.8113924403816528</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.24666094779968</v>
+        <v>80.62800216674805</v>
       </c>
       <c r="C34" t="n">
         <v>0.886936577400164</v>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>71.44104170799255</v>
+        <v>72.32694888114929</v>
       </c>
       <c r="C35" t="n">
         <v>0.9416765479665403</v>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.65933012962341</v>
+        <v>78.44540333747864</v>
       </c>
       <c r="C36" t="n">
         <v>0.8510576825610445</v>
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.72608733177185</v>
+        <v>76.35827255249023</v>
       </c>
       <c r="C37" t="n">
         <v>0.9759959100154201</v>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79.26147842407227</v>
+        <v>80.25879240036011</v>
       </c>
       <c r="C38" t="n">
         <v>0.8923673647274462</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.37299180030823</v>
+        <v>77.45316863059998</v>
       </c>
       <c r="C39" t="n">
         <v>0.8491141559355038</v>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.45226573944092</v>
+        <v>83.37738728523254</v>
       </c>
       <c r="C40" t="n">
         <v>0.9226665805648864</v>
@@ -5478,7 +5478,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67.08590483665466</v>
+        <v>67.9373664855957</v>
       </c>
       <c r="C41" t="n">
         <v>0.9752048115206965</v>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>74.67352652549744</v>
+        <v>75.24602770805359</v>
       </c>
       <c r="C42" t="n">
         <v>0.9055174152006518</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.06263875961304</v>
+        <v>74.62152862548828</v>
       </c>
       <c r="C43" t="n">
         <v>0.933539205901976</v>
@@ -5850,7 +5850,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.01980972290039</v>
+        <v>72.13304853439331</v>
       </c>
       <c r="C44" t="n">
         <v>0.9142144623300605</v>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71.41279315948486</v>
+        <v>72.98830127716064</v>
       </c>
       <c r="C45" t="n">
         <v>0.9862512791691275</v>
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.62446188926697</v>
+        <v>81.06516647338867</v>
       </c>
       <c r="C46" t="n">
         <v>0.8020207094530242</v>
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>74.12007689476013</v>
+        <v>74.62238049507141</v>
       </c>
       <c r="C47" t="n">
         <v>0.8748486491898476</v>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>72.7512104511261</v>
+        <v>73.53542399406433</v>
       </c>
       <c r="C48" t="n">
         <v>0.9960789054524427</v>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>75.70128154754639</v>
+        <v>76.5033118724823</v>
       </c>
       <c r="C49" t="n">
         <v>0.9917318358856209</v>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>68.01548624038696</v>
+        <v>69.10431957244873</v>
       </c>
       <c r="C50" t="n">
         <v>0.9974199531353718</v>
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>67.02346324920654</v>
+        <v>67.66253137588501</v>
       </c>
       <c r="C51" t="n">
         <v>0.9813789311861995</v>
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>69.56481337547302</v>
+        <v>70.46270060539246</v>
       </c>
       <c r="C52" t="n">
         <v>0.9770917314606575</v>
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>78.79818105697632</v>
+        <v>79.02331161499023</v>
       </c>
       <c r="C53" t="n">
         <v>0.7603057456514403</v>
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>77.73015260696411</v>
+        <v>79.61267137527466</v>
       </c>
       <c r="C54" t="n">
         <v>0.9795124803074164</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>79.00293302536011</v>
+        <v>79.68223071098328</v>
       </c>
       <c r="C55" t="n">
         <v>0.9227283376427946</v>
@@ -7338,7 +7338,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>79.13968944549561</v>
+        <v>80.17184901237488</v>
       </c>
       <c r="C56" t="n">
         <v>0.8558064580188957</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>76.51857805252075</v>
+        <v>77.99269962310791</v>
       </c>
       <c r="C57" t="n">
         <v>0.9198691185949123</v>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>70.4892725944519</v>
+        <v>71.73417520523071</v>
       </c>
       <c r="C58" t="n">
         <v>0.9927285193232097</v>
@@ -7710,7 +7710,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>73.58011484146118</v>
+        <v>74.93364334106445</v>
       </c>
       <c r="C59" t="n">
         <v>0.9738321386118501</v>
@@ -7834,7 +7834,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>78.19219565391541</v>
+        <v>79.98476314544678</v>
       </c>
       <c r="C60" t="n">
         <v>0.8640516026558281</v>
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>73.65365195274353</v>
+        <v>74.62246465682983</v>
       </c>
       <c r="C61" t="n">
         <v>0.9970383531827638</v>
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>78.92386388778687</v>
+        <v>80.39157295227051</v>
       </c>
       <c r="C62" t="n">
         <v>0.8937668253571236</v>
@@ -8206,7 +8206,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>71.44915413856506</v>
+        <v>72.725834608078</v>
       </c>
       <c r="C63" t="n">
         <v>0.9907016486207633</v>
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>74.28074836730957</v>
+        <v>75.55274438858032</v>
       </c>
       <c r="C64" t="n">
         <v>0.9884945386952353</v>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>73.26405453681946</v>
+        <v>74.2194037437439</v>
       </c>
       <c r="C65" t="n">
         <v>0.9931802305903026</v>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>74.27082872390747</v>
+        <v>76.24039578437805</v>
       </c>
       <c r="C66" t="n">
         <v>0.9891377198825898</v>
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>69.3479917049408</v>
+        <v>70.79746699333191</v>
       </c>
       <c r="C67" t="n">
         <v>0.5627483533205565</v>
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>74.21469473838806</v>
+        <v>75.01270461082458</v>
       </c>
       <c r="C68" t="n">
         <v>0.8949532865137636</v>
@@ -8950,7 +8950,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>70.48565316200256</v>
+        <v>72.54477477073669</v>
       </c>
       <c r="C69" t="n">
         <v>0.6260123590348323</v>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>72.01937770843506</v>
+        <v>73.26289701461792</v>
       </c>
       <c r="C70" t="n">
         <v>0.9909596372281938</v>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>72.36062788963318</v>
+        <v>73.29287266731262</v>
       </c>
       <c r="C71" t="n">
         <v>0.9923971637713721</v>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>75.47099590301514</v>
+        <v>76.57350063323975</v>
       </c>
       <c r="C72" t="n">
         <v>0.7088255873562346</v>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>72.28388857841492</v>
+        <v>72.98232412338257</v>
       </c>
       <c r="C73" t="n">
         <v>0.9936371353721357</v>
